--- a/SVM_results/SVM_results_avg_3.xlsx
+++ b/SVM_results/SVM_results_avg_3.xlsx
@@ -1155,16 +1155,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7677705701604645</v>
-      </c>
-      <c r="C2">
-        <v>0.6949738986503693</v>
+        <v>0.7401697312588402</v>
       </c>
       <c r="D2">
-        <v>0.1983341667581401</v>
-      </c>
-      <c r="E2">
-        <v>0.3066007308179599</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -1175,10 +1169,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7401160805735746</v>
+        <v>0.7292249914646638</v>
+      </c>
+      <c r="C3">
+        <v>0.4140350877192983</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.08913162484457537</v>
+      </c>
+      <c r="E3">
+        <v>0.13501281220092</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -1189,7 +1189,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7401014485685021</v>
+        <v>0.7391650002438667</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1203,16 +1206,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9960444812954201</v>
+        <v>0.7618592401112032</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.6806837606837607</v>
       </c>
       <c r="D5">
-        <v>0.9853174603174603</v>
+        <v>0.1656476500594393</v>
       </c>
       <c r="E5">
-        <v>0.9924839124839124</v>
+        <v>0.2639640292736813</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -1223,16 +1226,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7410866702433789</v>
-      </c>
-      <c r="C6">
-        <v>0.5866666666666667</v>
+        <v>0.7401014485685021</v>
       </c>
       <c r="D6">
-        <v>0.03175776882737867</v>
-      </c>
-      <c r="E6">
-        <v>0.05920342249714065</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -1243,16 +1240,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8952787396966297</v>
+        <v>0.8962493293664341</v>
       </c>
       <c r="C7">
-        <v>0.8366930888386044</v>
+        <v>0.8366028708133971</v>
       </c>
       <c r="D7">
-        <v>0.7432913016184939</v>
+        <v>0.7431246883985221</v>
       </c>
       <c r="E7">
-        <v>0.7859085592769803</v>
+        <v>0.7863778436659594</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -1263,16 +1260,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.741057406233234</v>
+        <v>0.7411598302687412</v>
       </c>
       <c r="C8">
-        <v>0.5111111111111111</v>
+        <v>0.5264423076923077</v>
       </c>
       <c r="D8">
-        <v>0.1362962962962963</v>
+        <v>0.06466028271773826</v>
       </c>
       <c r="E8">
-        <v>0.3058661145617668</v>
+        <v>0.2473347547974414</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -1283,16 +1280,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7589279617616935</v>
+        <v>0.7371262742037751</v>
       </c>
       <c r="C9">
-        <v>0.6264957264957265</v>
+        <v>0.4956521739130434</v>
       </c>
       <c r="D9">
-        <v>0.1673069833428271</v>
+        <v>0.1104489586341902</v>
       </c>
       <c r="E9">
-        <v>0.2627728449151583</v>
+        <v>0.1708313581293001</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -1303,16 +1300,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7509974150124371</v>
+        <v>0.7410964249134272</v>
       </c>
       <c r="C10">
-        <v>0.6238888888888889</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0.1167313251344178</v>
+        <v>0.003448275862068965</v>
       </c>
       <c r="E10">
-        <v>0.195853073668196</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -1323,16 +1320,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9960542359654685</v>
+        <v>0.769804418865532</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.7279365079365079</v>
       </c>
       <c r="D11">
-        <v>0.9861941448382125</v>
+        <v>0.1934282622139765</v>
       </c>
       <c r="E11">
-        <v>0.9929477463103311</v>
+        <v>0.3024937169482412</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
@@ -1343,16 +1340,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.766765839145491</v>
-      </c>
-      <c r="C12">
-        <v>0.6955128205128205</v>
+        <v>0.7401160805735747</v>
       </c>
       <c r="D12">
-        <v>0.2160588787006526</v>
-      </c>
-      <c r="E12">
-        <v>0.3244634178539151</v>
+        <v>0</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
@@ -1363,16 +1354,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8922791786567819</v>
+        <v>0.8942106033263425</v>
       </c>
       <c r="C13">
-        <v>0.898490675990676</v>
+        <v>0.8322053798543101</v>
       </c>
       <c r="D13">
-        <v>0.6618621996740879</v>
+        <v>0.7371696557410844</v>
       </c>
       <c r="E13">
-        <v>0.7604331679529276</v>
+        <v>0.7808427619050322</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
@@ -1383,16 +1374,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7776471735843536</v>
+        <v>0.7421352972735697</v>
       </c>
       <c r="C14">
-        <v>0.6486402486402486</v>
+        <v>0.5025062656641605</v>
       </c>
       <c r="D14">
-        <v>0.3148760607584137</v>
+        <v>0.07712418300653595</v>
       </c>
       <c r="E14">
-        <v>0.4235644140158331</v>
+        <v>0.199850723988655</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
@@ -1403,10 +1394,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7401550992537678</v>
+        <v>0.7785982539140613</v>
+      </c>
+      <c r="C15">
+        <v>0.6845726356023839</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.2852182703197667</v>
+      </c>
+      <c r="E15">
+        <v>0.3966630158910517</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
@@ -1417,16 +1414,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9950592596205432</v>
+        <v>0.7776910695995707</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0.6707605562543806</v>
       </c>
       <c r="D16">
-        <v>0.9806316865007814</v>
+        <v>0.2876403583404234</v>
       </c>
       <c r="E16">
-        <v>0.9901458673545862</v>
+        <v>0.3984272674500984</v>
       </c>
       <c r="F16" t="s">
         <v>19</v>
@@ -1437,16 +1434,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7361264205238257</v>
+        <v>0.7371165195337268</v>
       </c>
       <c r="C17">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03293747687754347</v>
-      </c>
-      <c r="E17">
-        <v>0.09694377848333657</v>
+        <v>0</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>
@@ -1457,16 +1451,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8962590840364826</v>
+        <v>0.9120226308345121</v>
       </c>
       <c r="C18">
-        <v>0.8388933626319645</v>
+        <v>0.9194554238032498</v>
       </c>
       <c r="D18">
-        <v>0.7438496066774756</v>
+        <v>0.7276187504333957</v>
       </c>
       <c r="E18">
-        <v>0.7860711306081045</v>
+        <v>0.8119919629321233</v>
       </c>
       <c r="F18" t="s">
         <v>21</v>
@@ -1477,16 +1471,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7371652928839684</v>
+        <v>0.8083451202263083</v>
       </c>
       <c r="C19">
-        <v>0.2984126984126984</v>
+        <v>0.7370775729646698</v>
       </c>
       <c r="D19">
-        <v>0.04093137254901961</v>
+        <v>0.4150604214521122</v>
       </c>
       <c r="E19">
-        <v>0.1628352490421456</v>
+        <v>0.5259109176870544</v>
       </c>
       <c r="F19" t="s">
         <v>22</v>
@@ -1497,16 +1491,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9881383212212846</v>
+        <v>0.7539140613568748</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0.6714619883040935</v>
       </c>
       <c r="D20">
-        <v>0.9534539572166691</v>
+        <v>0.146993006993007</v>
       </c>
       <c r="E20">
-        <v>0.9760792857778455</v>
+        <v>0.2354382552313587</v>
       </c>
       <c r="F20" t="s">
         <v>23</v>
@@ -1517,16 +1511,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7312295761595864</v>
+        <v>0.7391113495586012</v>
       </c>
       <c r="C21">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="D21">
-        <v>0.003703703703703703</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="E21">
-        <v>0.03571428571428571</v>
+        <v>0.03999999999999999</v>
       </c>
       <c r="F21" t="s">
         <v>24</v>
@@ -1537,16 +1531,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8695703067843731</v>
+        <v>0.9160122908842607</v>
       </c>
       <c r="C22">
-        <v>0.8205593432942168</v>
+        <v>0.9349906359304857</v>
       </c>
       <c r="D22">
-        <v>0.6296877127065806</v>
+        <v>0.7326110061518399</v>
       </c>
       <c r="E22">
-        <v>0.7119277013071466</v>
+        <v>0.8195386510041682</v>
       </c>
       <c r="F22" t="s">
         <v>25</v>
@@ -1557,16 +1551,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7371555382139199</v>
+        <v>0.7678095888406574</v>
       </c>
       <c r="C23">
-        <v>0.5694444444444444</v>
+        <v>0.6161819321029848</v>
       </c>
       <c r="D23">
-        <v>0.06280973928032751</v>
+        <v>0.279992550211574</v>
       </c>
       <c r="E23">
-        <v>0.1140166850693166</v>
+        <v>0.3802903558799627</v>
       </c>
       <c r="F23" t="s">
         <v>26</v>
@@ -1577,16 +1571,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9990099009900991</v>
+        <v>0.7589035750865726</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0.6526007326007326</v>
       </c>
       <c r="D24">
-        <v>0.9964912280701753</v>
+        <v>0.1498309949131071</v>
       </c>
       <c r="E24">
-        <v>0.9982300884955752</v>
+        <v>0.2422837559090311</v>
       </c>
       <c r="F24" t="s">
         <v>27</v>
@@ -1597,16 +1591,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0.8902892259669317</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0.9024612854845413</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0.6568373901284652</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0.756738597239223</v>
       </c>
       <c r="F25" t="s">
         <v>28</v>
@@ -1617,16 +1611,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0.7677461834853435</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0.6159671246627768</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0.2884355222259671</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0.3907802175568077</v>
       </c>
       <c r="F26" t="s">
         <v>29</v>
@@ -1637,16 +1631,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.9150465785494806</v>
+        <v>0.8695605521143248</v>
       </c>
       <c r="C27">
-        <v>0.9350769706583659</v>
+        <v>0.8151627276627277</v>
       </c>
       <c r="D27">
-        <v>0.721593984962406</v>
+        <v>0.6454882154882154</v>
       </c>
       <c r="E27">
-        <v>0.8140454806796328</v>
+        <v>0.7181999857887251</v>
       </c>
       <c r="F27" t="s">
         <v>30</v>
@@ -1657,16 +1651,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.768853338535824</v>
+        <v>0.7431010096083501</v>
       </c>
       <c r="C28">
-        <v>0.6477423664787402</v>
+        <v>0.7424242424242424</v>
       </c>
       <c r="D28">
-        <v>0.3025160617438464</v>
+        <v>0.0464455521307557</v>
       </c>
       <c r="E28">
-        <v>0.3988557307260394</v>
+        <v>0.09797813565847034</v>
       </c>
       <c r="F28" t="s">
         <v>31</v>
@@ -1677,16 +1671,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.9960493586304443</v>
+        <v>0.9960444812954201</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29">
-        <v>0.985103448275862</v>
+        <v>0.9858672276764843</v>
       </c>
       <c r="E29">
-        <v>0.9924095954171144</v>
+        <v>0.9928428370087001</v>
       </c>
       <c r="F29" t="s">
         <v>32</v>
@@ -1697,16 +1691,16 @@
         <v>0</v>
       </c>
       <c r="B30">
-        <v>0.7549529337170171</v>
+        <v>0.7372091888991855</v>
       </c>
       <c r="C30">
-        <v>0.6371428571428571</v>
+        <v>0.4355555555555556</v>
       </c>
       <c r="D30">
-        <v>0.1529906898211121</v>
+        <v>0.09563780035478149</v>
       </c>
       <c r="E30">
-        <v>0.2445726676886131</v>
+        <v>0.1532396819089388</v>
       </c>
       <c r="F30" t="s">
         <v>33</v>
@@ -1717,16 +1711,16 @@
         <v>1</v>
       </c>
       <c r="B31">
-        <v>0.7598253914061358</v>
+        <v>0.7400965712334781</v>
       </c>
       <c r="C31">
-        <v>0.7257575757575758</v>
+        <v>0.5</v>
       </c>
       <c r="D31">
-        <v>0.1395139299404611</v>
+        <v>0.004081632653061224</v>
       </c>
       <c r="E31">
-        <v>0.2294037550411419</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
@@ -1737,16 +1731,16 @@
         <v>2</v>
       </c>
       <c r="B32">
-        <v>0.9930839389357654</v>
+        <v>0.7529337170170219</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0.6282051282051282</v>
       </c>
       <c r="D32">
-        <v>0.9719547881561612</v>
+        <v>0.1205321468502255</v>
       </c>
       <c r="E32">
-        <v>0.9857048201543614</v>
+        <v>0.2000337810159669</v>
       </c>
       <c r="F32" t="s">
         <v>35</v>
@@ -1757,16 +1751,10 @@
         <v>3</v>
       </c>
       <c r="B33">
-        <v>0.763863824806126</v>
-      </c>
-      <c r="C33">
-        <v>0.6754248366013071</v>
+        <v>0.7401453445837195</v>
       </c>
       <c r="D33">
-        <v>0.1878408112434481</v>
-      </c>
-      <c r="E33">
-        <v>0.29108865609839</v>
+        <v>0</v>
       </c>
       <c r="F33" t="s">
         <v>36</v>
@@ -1777,16 +1765,16 @@
         <v>4</v>
       </c>
       <c r="B34">
-        <v>0.8962444520314101</v>
+        <v>0.8942398673364874</v>
       </c>
       <c r="C34">
-        <v>0.8941824257613732</v>
+        <v>0.8457534132534132</v>
       </c>
       <c r="D34">
-        <v>0.6813979416809606</v>
+        <v>0.7190264283442696</v>
       </c>
       <c r="E34">
-        <v>0.7720199171380135</v>
+        <v>0.7763122260138419</v>
       </c>
       <c r="F34" t="s">
         <v>37</v>
@@ -1797,16 +1785,10 @@
         <v>5</v>
       </c>
       <c r="B35">
-        <v>0.7826366873140517</v>
-      </c>
-      <c r="C35">
-        <v>0.7285588972431079</v>
+        <v>0.7401404672486953</v>
       </c>
       <c r="D35">
-        <v>0.27418483477307</v>
-      </c>
-      <c r="E35">
-        <v>0.39408547008547</v>
+        <v>0</v>
       </c>
       <c r="F35" t="s">
         <v>38</v>
@@ -1817,10 +1799,16 @@
         <v>6</v>
       </c>
       <c r="B36">
-        <v>0.7401502219187435</v>
+        <v>0.7726722918597279</v>
+      </c>
+      <c r="C36">
+        <v>0.7115151515151515</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>0.2366273378038084</v>
+      </c>
+      <c r="E36">
+        <v>0.3494776432958392</v>
       </c>
       <c r="F36" t="s">
         <v>39</v>
@@ -1831,16 +1819,16 @@
         <v>7</v>
       </c>
       <c r="B37">
-        <v>0.9960493586304443</v>
+        <v>0.7825879139638102</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0.6649858836815359</v>
       </c>
       <c r="D37">
-        <v>0.984920634920635</v>
+        <v>0.3424580412383617</v>
       </c>
       <c r="E37">
-        <v>0.992342879049262</v>
+        <v>0.4464572769003149</v>
       </c>
       <c r="F37" t="s">
         <v>40</v>
@@ -1851,16 +1839,16 @@
         <v>8</v>
       </c>
       <c r="B38">
-        <v>0.7391259815636737</v>
+        <v>0.7351509535189973</v>
       </c>
       <c r="C38">
-        <v>0.3888888888888888</v>
+        <v>0.4958333333333333</v>
       </c>
       <c r="D38">
-        <v>0.01643605870020964</v>
+        <v>0.05402473543287008</v>
       </c>
       <c r="E38">
-        <v>0.07653061224489796</v>
+        <v>0.0932239591394521</v>
       </c>
       <c r="F38" t="s">
         <v>41</v>
@@ -1871,16 +1859,16 @@
         <v>9</v>
       </c>
       <c r="B39">
-        <v>0.8943032726918012</v>
+        <v>0.9229332292835195</v>
       </c>
       <c r="C39">
-        <v>0.8495489584475818</v>
+        <v>0.9624716553287982</v>
       </c>
       <c r="D39">
-        <v>0.7259636525562885</v>
+        <v>0.7347283245610233</v>
       </c>
       <c r="E39">
-        <v>0.7809126650043243</v>
+        <v>0.829970528107261</v>
       </c>
       <c r="F39" t="s">
         <v>42</v>
@@ -1891,10 +1879,16 @@
         <v>10</v>
       </c>
       <c r="B40">
-        <v>0.7401209579085988</v>
+        <v>0.7955079744427644</v>
+      </c>
+      <c r="C40">
+        <v>0.6800830889540567</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>0.4162986536107711</v>
+      </c>
+      <c r="E40">
+        <v>0.5090138590263635</v>
       </c>
       <c r="F40" t="s">
         <v>43</v>
@@ -1905,16 +1899,16 @@
         <v>11</v>
       </c>
       <c r="B41">
-        <v>0.9891381749012339</v>
+        <v>0.7519533726771691</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0.6774509803921569</v>
       </c>
       <c r="D41">
-        <v>0.9588659368982819</v>
+        <v>0.1308712715855573</v>
       </c>
       <c r="E41">
-        <v>0.9787781856363205</v>
+        <v>0.2121026180458158</v>
       </c>
       <c r="F41" t="s">
         <v>44</v>
@@ -1925,16 +1919,13 @@
         <v>12</v>
       </c>
       <c r="B42">
-        <v>0.734185241184217</v>
+        <v>0.7391796322489392</v>
       </c>
       <c r="C42">
-        <v>0.1964285714285714</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>0.01124437781109445</v>
-      </c>
-      <c r="E42">
-        <v>0.0516025641025641</v>
+        <v>0</v>
       </c>
       <c r="F42" t="s">
         <v>45</v>
@@ -1945,16 +1936,16 @@
         <v>13</v>
       </c>
       <c r="B43">
-        <v>0.8824513485831341</v>
+        <v>0.9110569184997317</v>
       </c>
       <c r="C43">
-        <v>0.8435295555963078</v>
+        <v>0.9137154161128993</v>
       </c>
       <c r="D43">
-        <v>0.6757747637287288</v>
+        <v>0.7111333480349438</v>
       </c>
       <c r="E43">
-        <v>0.7465750737306618</v>
+        <v>0.7974923333573642</v>
       </c>
       <c r="F43" t="s">
         <v>46</v>
@@ -1965,16 +1956,16 @@
         <v>14</v>
       </c>
       <c r="B44">
-        <v>0.7401063259035263</v>
+        <v>0.7648441691459787</v>
       </c>
       <c r="C44">
-        <v>0.5</v>
+        <v>0.6619047619047619</v>
       </c>
       <c r="D44">
-        <v>0.003636363636363636</v>
+        <v>0.2186465888837475</v>
       </c>
       <c r="E44">
-        <v>0.03571428571428572</v>
+        <v>0.3220393786584902</v>
       </c>
       <c r="F44" t="s">
         <v>47</v>
@@ -1985,16 +1976,16 @@
         <v>15</v>
       </c>
       <c r="B45">
-        <v>0.9960493586304443</v>
+        <v>0.7569184997317466</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0.7138927738927739</v>
       </c>
       <c r="D45">
-        <v>0.9851443167305236</v>
+        <v>0.1249281274281274</v>
       </c>
       <c r="E45">
-        <v>0.992467082639355</v>
+        <v>0.2105888682091749</v>
       </c>
       <c r="F45" t="s">
         <v>48</v>
@@ -2005,16 +1996,16 @@
         <v>16</v>
       </c>
       <c r="B46">
-        <v>0.9950543822855191</v>
+        <v>0.8933180510169244</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0.8836359547552792</v>
       </c>
       <c r="D46">
-        <v>0.9819112538161912</v>
+        <v>0.6786015112102068</v>
       </c>
       <c r="E46">
-        <v>0.9907830046960481</v>
+        <v>0.7637853929232112</v>
       </c>
       <c r="F46" t="s">
         <v>49</v>
@@ -2025,16 +2016,16 @@
         <v>17</v>
       </c>
       <c r="B47">
-        <v>0.9950592596205434</v>
+        <v>0.7767009705896699</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0.7014312049606167</v>
       </c>
       <c r="D47">
-        <v>0.9804871054871056</v>
+        <v>0.2662278099226342</v>
       </c>
       <c r="E47">
-        <v>0.99010862011753</v>
+        <v>0.379043096227157</v>
       </c>
       <c r="F47" t="s">
         <v>50</v>
@@ -2045,16 +2036,16 @@
         <v>18</v>
       </c>
       <c r="B48">
-        <v>0.9189484465687949</v>
+        <v>0.878451933863337</v>
       </c>
       <c r="C48">
-        <v>0.9318915162964411</v>
+        <v>0.8348146190440232</v>
       </c>
       <c r="D48">
-        <v>0.7422182602466919</v>
+        <v>0.6616064411388447</v>
       </c>
       <c r="E48">
-        <v>0.8248938764684723</v>
+        <v>0.7368899760326515</v>
       </c>
       <c r="F48" t="s">
         <v>51</v>
@@ -2065,16 +2056,10 @@
         <v>19</v>
       </c>
       <c r="B49">
-        <v>0.7757255035848413</v>
-      </c>
-      <c r="C49">
-        <v>0.7081141734082911</v>
+        <v>0.7400819392284055</v>
       </c>
       <c r="D49">
-        <v>0.2503581863026434</v>
-      </c>
-      <c r="E49">
-        <v>0.3613967802356515</v>
+        <v>0</v>
       </c>
       <c r="F49" t="s">
         <v>52</v>
@@ -2085,16 +2070,16 @@
         <v>20</v>
       </c>
       <c r="B50">
-        <v>0.9871482222113837</v>
+        <v>0.9871579768814319</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50">
-        <v>0.9509001018711466</v>
+        <v>0.9515218156228007</v>
       </c>
       <c r="E50">
-        <v>0.9746694217648407</v>
+        <v>0.9749328048943514</v>
       </c>
       <c r="F50" t="s">
         <v>53</v>
@@ -2105,16 +2090,16 @@
         <v>21</v>
       </c>
       <c r="B51">
-        <v>0.759840023411208</v>
+        <v>0.7628883578012975</v>
       </c>
       <c r="C51">
-        <v>0.7071428571428571</v>
+        <v>0.6493240774570698</v>
       </c>
       <c r="D51">
-        <v>0.1215567561841199</v>
+        <v>0.2190838396759408</v>
       </c>
       <c r="E51">
-        <v>0.2058380275186998</v>
+        <v>0.3233347090473627</v>
       </c>
       <c r="F51" t="s">
         <v>54</v>
@@ -2125,16 +2110,16 @@
         <v>22</v>
       </c>
       <c r="B52">
-        <v>0.9921035945959128</v>
+        <v>0.785587475003658</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0.6859438470728793</v>
       </c>
       <c r="D52">
-        <v>0.9694215422017864</v>
+        <v>0.342806659843595</v>
       </c>
       <c r="E52">
-        <v>0.984209690173629</v>
+        <v>0.4518533146440123</v>
       </c>
       <c r="F52" t="s">
         <v>55</v>
@@ -2145,16 +2130,16 @@
         <v>23</v>
       </c>
       <c r="B53">
-        <v>0.7697605228503146</v>
+        <v>0.7282592791298835</v>
       </c>
       <c r="C53">
-        <v>0.7383791208791208</v>
+        <v>0.255</v>
       </c>
       <c r="D53">
-        <v>0.1832853713903755</v>
+        <v>0.04658413926499032</v>
       </c>
       <c r="E53">
-        <v>0.2920665693272767</v>
+        <v>0.1277893838308961</v>
       </c>
       <c r="F53" t="s">
         <v>56</v>
@@ -2165,16 +2150,16 @@
         <v>24</v>
       </c>
       <c r="B54">
-        <v>0.8922840559918062</v>
+        <v>0.9189582012388431</v>
       </c>
       <c r="C54">
-        <v>0.8916881364249786</v>
+        <v>0.9446293639406982</v>
       </c>
       <c r="D54">
-        <v>0.6648173040431893</v>
+        <v>0.7345716779201691</v>
       </c>
       <c r="E54">
-        <v>0.7604416839199446</v>
+        <v>0.825191112517845</v>
       </c>
       <c r="F54" t="s">
         <v>57</v>
@@ -2185,16 +2170,16 @@
         <v>25</v>
       </c>
       <c r="B55">
-        <v>0.7776861922645466</v>
+        <v>0.8112861532458664</v>
       </c>
       <c r="C55">
-        <v>0.6987179487179487</v>
+        <v>0.7190126050420168</v>
       </c>
       <c r="D55">
-        <v>0.2701029961257894</v>
+        <v>0.448295025728988</v>
       </c>
       <c r="E55">
-        <v>0.382050556617861</v>
+        <v>0.5514890518541635</v>
       </c>
       <c r="F55" t="s">
         <v>58</v>
@@ -2205,16 +2190,16 @@
         <v>26</v>
       </c>
       <c r="B56">
-        <v>0.9812027508169535</v>
+        <v>0.7598839194264254</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0.6767948717948717</v>
       </c>
       <c r="D56">
-        <v>0.9320578121641951</v>
+        <v>0.1439488584173361</v>
       </c>
       <c r="E56">
-        <v>0.9644588205231679</v>
+        <v>0.235940355940356</v>
       </c>
       <c r="F56" t="s">
         <v>59</v>
@@ -2225,16 +2210,13 @@
         <v>27</v>
       </c>
       <c r="B57">
-        <v>0.7628444617860801</v>
+        <v>0.7381700238989415</v>
       </c>
       <c r="C57">
-        <v>0.6977855477855478</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>0.1485460258599451</v>
-      </c>
-      <c r="E57">
-        <v>0.2437730708721845</v>
+        <v>0</v>
       </c>
       <c r="F57" t="s">
         <v>60</v>
@@ -2245,16 +2227,16 @@
         <v>28</v>
       </c>
       <c r="B58">
-        <v>0.873530702823977</v>
+        <v>0.9189386918987464</v>
       </c>
       <c r="C58">
-        <v>0.8618640155482261</v>
+        <v>0.9510048510048511</v>
       </c>
       <c r="D58">
-        <v>0.6148988837513428</v>
+        <v>0.7296172966148504</v>
       </c>
       <c r="E58">
-        <v>0.7159365747637507</v>
+        <v>0.8235477126591018</v>
       </c>
       <c r="F58" t="s">
         <v>61</v>
@@ -2265,16 +2247,16 @@
         <v>29</v>
       </c>
       <c r="B59">
-        <v>0.7668731405160221</v>
+        <v>0.7777349656147882</v>
       </c>
       <c r="C59">
-        <v>0.6464177978883862</v>
+        <v>0.7485170002411381</v>
       </c>
       <c r="D59">
-        <v>0.2132167687624488</v>
+        <v>0.2581443069030891</v>
       </c>
       <c r="E59">
-        <v>0.3195757262144065</v>
+        <v>0.3656632062571036</v>
       </c>
       <c r="F59" t="s">
         <v>62</v>
@@ -2285,16 +2267,16 @@
         <v>30</v>
       </c>
       <c r="B60">
-        <v>0.9940594059405941</v>
+        <v>0.7628103204409111</v>
       </c>
       <c r="C60">
-        <v>0.9966101694915255</v>
+        <v>0.7196491228070176</v>
       </c>
       <c r="D60">
-        <v>0.9807161125319693</v>
+        <v>0.1510815867849116</v>
       </c>
       <c r="E60">
-        <v>0.9885333407290309</v>
+        <v>0.245712288758636</v>
       </c>
       <c r="F60" t="s">
         <v>63</v>
@@ -2305,16 +2287,16 @@
         <v>31</v>
       </c>
       <c r="B61">
-        <v>0.9960493586304444</v>
+        <v>0.8952689850265815</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>0.8900049073733285</v>
       </c>
       <c r="D61">
-        <v>0.9850494291283765</v>
+        <v>0.6810980392156862</v>
       </c>
       <c r="E61">
-        <v>0.9924538646573741</v>
+        <v>0.7709782483026208</v>
       </c>
       <c r="F61" t="s">
         <v>64</v>
@@ -2325,16 +2307,16 @@
         <v>32</v>
       </c>
       <c r="B62">
-        <v>0.9950690142905916</v>
+        <v>0.7648636784860752</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>0.6514957983193277</v>
       </c>
       <c r="D62">
-        <v>0.9783838383838385</v>
+        <v>0.2095947356077266</v>
       </c>
       <c r="E62">
-        <v>0.9889685202785266</v>
+        <v>0.3126832171538054</v>
       </c>
       <c r="F62" t="s">
         <v>65</v>
@@ -2345,16 +2327,16 @@
         <v>33</v>
       </c>
       <c r="B63">
-        <v>0.9110764278398283</v>
+        <v>0.8764229624932935</v>
       </c>
       <c r="C63">
-        <v>0.9487556594991684</v>
+        <v>0.8317321331151118</v>
       </c>
       <c r="D63">
-        <v>0.6968248551929804</v>
+        <v>0.6662236682112458</v>
       </c>
       <c r="E63">
-        <v>0.8020133496967059</v>
+        <v>0.7379175670376026</v>
       </c>
       <c r="F63" t="s">
         <v>66</v>
@@ -2365,16 +2347,16 @@
         <v>34</v>
       </c>
       <c r="B64">
-        <v>0.7944642247475981</v>
+        <v>0.7391064722235769</v>
       </c>
       <c r="C64">
-        <v>0.725421637186343</v>
+        <v>0.25</v>
       </c>
       <c r="D64">
-        <v>0.3536372209796537</v>
+        <v>0.005405405405405406</v>
       </c>
       <c r="E64">
-        <v>0.4688442091987898</v>
+        <v>0.05128205128205129</v>
       </c>
       <c r="F64" t="s">
         <v>67</v>
@@ -2385,16 +2367,16 @@
         <v>35</v>
       </c>
       <c r="B65">
-        <v>0.9634638833341462</v>
+        <v>0.9871579768814321</v>
       </c>
       <c r="C65">
-        <v>0.9962962962962962</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>0.8653229722238152</v>
+        <v>0.9497177074980279</v>
       </c>
       <c r="E65">
-        <v>0.9254086114386867</v>
+        <v>0.9740740673109238</v>
       </c>
       <c r="F65" t="s">
         <v>68</v>
@@ -2405,16 +2387,16 @@
         <v>36</v>
       </c>
       <c r="B66">
-        <v>0.9881529532263571</v>
+        <v>0.7856118616787787</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>0.6960233890299976</v>
       </c>
       <c r="D66">
-        <v>0.9545878736916473</v>
+        <v>0.3218219124200657</v>
       </c>
       <c r="E66">
-        <v>0.9766347905701431</v>
+        <v>0.4376418732049782</v>
       </c>
       <c r="F66" t="s">
         <v>69</v>
@@ -2425,16 +2407,16 @@
         <v>37</v>
       </c>
       <c r="B67">
-        <v>0.736175193874067</v>
+        <v>0.7658342681558796</v>
       </c>
       <c r="C67">
-        <v>0.2666666666666667</v>
+        <v>0.7008727383727383</v>
       </c>
       <c r="D67">
-        <v>0.007430340557275541</v>
+        <v>0.1836777076109717</v>
       </c>
       <c r="E67">
-        <v>0.03452380952380953</v>
+        <v>0.2852913752913753</v>
       </c>
       <c r="F67" t="s">
         <v>70</v>
@@ -2445,16 +2427,16 @@
         <v>38</v>
       </c>
       <c r="B68">
-        <v>0.8834414475930352</v>
+        <v>0.9051602204555431</v>
       </c>
       <c r="C68">
-        <v>0.8477919170496053</v>
+        <v>0.9078730904817862</v>
       </c>
       <c r="D68">
-        <v>0.6782170425953523</v>
+        <v>0.7077438999798347</v>
       </c>
       <c r="E68">
-        <v>0.7518541284178409</v>
+        <v>0.7947842851911018</v>
       </c>
       <c r="F68" t="s">
         <v>71</v>
@@ -2465,10 +2447,16 @@
         <v>39</v>
       </c>
       <c r="B69">
-        <v>0.7401404672486953</v>
+        <v>0.7954250597473541</v>
+      </c>
+      <c r="C69">
+        <v>0.6830669955669956</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>0.4013858736194756</v>
+      </c>
+      <c r="E69">
+        <v>0.5021460538017428</v>
       </c>
       <c r="F69" t="s">
         <v>72</v>
@@ -2479,16 +2467,16 @@
         <v>40</v>
       </c>
       <c r="B70">
-        <v>0.9930839389357654</v>
+        <v>0.7776861922645467</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>0.6789445865302642</v>
       </c>
       <c r="D70">
-        <v>0.9735677238386323</v>
+        <v>0.2765172898597876</v>
       </c>
       <c r="E70">
-        <v>0.9865534331014446</v>
+        <v>0.3911116236214566</v>
       </c>
       <c r="F70" t="s">
         <v>73</v>
@@ -2499,16 +2487,16 @@
         <v>41</v>
       </c>
       <c r="B71">
-        <v>0.9950543822855191</v>
+        <v>0.9011900697458909</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>0.9262781662781663</v>
       </c>
       <c r="D71">
-        <v>0.9809950295907836</v>
+        <v>0.6781185849731157</v>
       </c>
       <c r="E71">
-        <v>0.9903664310236703</v>
+        <v>0.7794518506431698</v>
       </c>
       <c r="F71" t="s">
         <v>74</v>
@@ -2519,16 +2507,16 @@
         <v>42</v>
       </c>
       <c r="B72">
-        <v>0.9950543822855191</v>
+        <v>0.813217577915427</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0.7319938356081158</v>
       </c>
       <c r="D72">
-        <v>0.9815555555555555</v>
+        <v>0.4472856791943012</v>
       </c>
       <c r="E72">
-        <v>0.9906044018403568</v>
+        <v>0.5507294661398133</v>
       </c>
       <c r="F72" t="s">
         <v>75</v>
@@ -2539,16 +2527,16 @@
         <v>43</v>
       </c>
       <c r="B73">
-        <v>0.9219431302736185</v>
+        <v>0.9091108618250988</v>
       </c>
       <c r="C73">
-        <v>0.9417816417816418</v>
+        <v>0.9330447330447329</v>
       </c>
       <c r="D73">
-        <v>0.743553752535497</v>
+        <v>0.6998737504076725</v>
       </c>
       <c r="E73">
-        <v>0.8295268125500683</v>
+        <v>0.7988686877212439</v>
       </c>
       <c r="F73" t="s">
         <v>76</v>
@@ -2559,16 +2547,16 @@
         <v>44</v>
       </c>
       <c r="B74">
-        <v>0.7717602302102131</v>
+        <v>0.8033653611666585</v>
       </c>
       <c r="C74">
-        <v>0.6823462502409871</v>
+        <v>0.7201358952937901</v>
       </c>
       <c r="D74">
-        <v>0.2393329164569766</v>
+        <v>0.4025814609221247</v>
       </c>
       <c r="E74">
-        <v>0.345041702976608</v>
+        <v>0.5142782078654601</v>
       </c>
       <c r="F74" t="s">
         <v>77</v>
@@ -2579,16 +2567,16 @@
         <v>45</v>
       </c>
       <c r="B75">
-        <v>0.9871677315514802</v>
+        <v>0.9584987562795689</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>0.9663535394085375</v>
       </c>
       <c r="D75">
-        <v>0.9509540616616089</v>
+        <v>0.8711458009069311</v>
       </c>
       <c r="E75">
-        <v>0.974565760807247</v>
+        <v>0.9161747675630127</v>
       </c>
       <c r="F75" t="s">
         <v>78</v>
@@ -2599,16 +2587,16 @@
         <v>46</v>
       </c>
       <c r="B76">
-        <v>0.9901185192410867</v>
+        <v>0.743037604253036</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>0.5308669108669108</v>
       </c>
       <c r="D76">
-        <v>0.9621748469502744</v>
+        <v>0.09651494206398642</v>
       </c>
       <c r="E76">
-        <v>0.9806931247626934</v>
+        <v>0.1616123175549405</v>
       </c>
       <c r="F76" t="s">
         <v>79</v>
@@ -2619,16 +2607,16 @@
         <v>47</v>
       </c>
       <c r="B77">
-        <v>0.9901136419060625</v>
+        <v>0.9071111544652002</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>0.9334514943520388</v>
       </c>
       <c r="D77">
-        <v>0.9636425436334675</v>
+        <v>0.6885833763280302</v>
       </c>
       <c r="E77">
-        <v>0.9813912415293166</v>
+        <v>0.7913306760261226</v>
       </c>
       <c r="F77" t="s">
         <v>80</v>
@@ -2639,16 +2627,16 @@
         <v>48</v>
       </c>
       <c r="B78">
-        <v>0.9891284202311856</v>
+        <v>0.7766765839145491</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>0.6581366459627329</v>
       </c>
       <c r="D78">
-        <v>0.9574337263016508</v>
+        <v>0.2971292440822063</v>
       </c>
       <c r="E78">
-        <v>0.9781812611935621</v>
+        <v>0.4078650699999368</v>
       </c>
       <c r="F78" t="s">
         <v>81</v>
@@ -2659,16 +2647,16 @@
         <v>49</v>
       </c>
       <c r="B79">
-        <v>0.8992342584012096</v>
+        <v>0.9041213480954007</v>
       </c>
       <c r="C79">
-        <v>0.9208234313112362</v>
+        <v>0.92835772817624</v>
       </c>
       <c r="D79">
-        <v>0.6640435490435491</v>
+        <v>0.6824252044252044</v>
       </c>
       <c r="E79">
-        <v>0.7692179747279589</v>
+        <v>0.7841225807936885</v>
       </c>
       <c r="F79" t="s">
         <v>82</v>
@@ -2679,16 +2667,16 @@
         <v>50</v>
       </c>
       <c r="B80">
-        <v>0.7698531922157732</v>
+        <v>0.7756913622396722</v>
       </c>
       <c r="C80">
-        <v>0.6976656676656676</v>
+        <v>0.7244778613199665</v>
       </c>
       <c r="D80">
-        <v>0.2638246774119484</v>
+        <v>0.2294181848984805</v>
       </c>
       <c r="E80">
-        <v>0.354583720280311</v>
+        <v>0.3460694780195183</v>
       </c>
       <c r="F80" t="s">
         <v>83</v>
@@ -2699,16 +2687,16 @@
         <v>51</v>
       </c>
       <c r="B81">
-        <v>0.9644442276739988</v>
+        <v>0.9614592986392235</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>0.9959183673469388</v>
       </c>
       <c r="D81">
-        <v>0.8609563983696246</v>
+        <v>0.8552031857031857</v>
       </c>
       <c r="E81">
-        <v>0.9227670644299687</v>
+        <v>0.9184835110056107</v>
       </c>
       <c r="F81" t="s">
         <v>84</v>
@@ -2719,16 +2707,16 @@
         <v>52</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0.8725649904891967</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>0.8579009966814845</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>0.612244030349644</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0.7142141746508491</v>
       </c>
       <c r="F82" t="s">
         <v>85</v>
@@ -2739,16 +2727,16 @@
         <v>53</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0.7598741647563771</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>0.6137445768661276</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>0.2169349962207105</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0.3170890674929424</v>
       </c>
       <c r="F83" t="s">
         <v>86</v>
@@ -2759,16 +2747,16 @@
         <v>54</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>0.9594888552894698</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>0.9897435897435898</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>0.8509607009245622</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0.9148188146807567</v>
       </c>
       <c r="F84" t="s">
         <v>87</v>
@@ -2779,16 +2767,16 @@
         <v>55</v>
       </c>
       <c r="B85">
-        <v>0.9634346193240013</v>
+        <v>0.9664341803638493</v>
       </c>
       <c r="C85">
-        <v>0.9833006535947713</v>
+        <v>1</v>
       </c>
       <c r="D85">
-        <v>0.8757628336176326</v>
+        <v>0.8738557087906933</v>
       </c>
       <c r="E85">
-        <v>0.9260600743794022</v>
+        <v>0.9297772416612723</v>
       </c>
       <c r="F85" t="s">
         <v>88</v>
@@ -2799,16 +2787,16 @@
         <v>0</v>
       </c>
       <c r="B86">
-        <v>0.7538701653416572</v>
+        <v>0.7628932351363213</v>
       </c>
       <c r="C86">
-        <v>0.6211788211788212</v>
+        <v>0.6483751233286836</v>
       </c>
       <c r="D86">
-        <v>0.1317864136479517</v>
+        <v>0.2036073104963548</v>
       </c>
       <c r="E86">
-        <v>0.2138752868261065</v>
+        <v>0.3070099577416651</v>
       </c>
       <c r="F86" t="s">
         <v>89</v>
@@ -2819,16 +2807,16 @@
         <v>1</v>
       </c>
       <c r="B87">
-        <v>0.9930839389357654</v>
+        <v>0.7836072769838559</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>0.6558872187837704</v>
       </c>
       <c r="D87">
-        <v>0.9743386243386244</v>
+        <v>0.3639032396175253</v>
       </c>
       <c r="E87">
-        <v>0.986802169792824</v>
+        <v>0.4637963662353906</v>
       </c>
       <c r="F87" t="s">
         <v>90</v>
@@ -2839,16 +2827,16 @@
         <v>2</v>
       </c>
       <c r="B88">
-        <v>0.7549041603667757</v>
+        <v>0.7391259815636737</v>
       </c>
       <c r="C88">
-        <v>0.6187590187590187</v>
+        <v>0.5228571428571429</v>
       </c>
       <c r="D88">
-        <v>0.1560412211207805</v>
+        <v>0.05054106480521575</v>
       </c>
       <c r="E88">
-        <v>0.2437082421508119</v>
+        <v>0.09197915423479333</v>
       </c>
       <c r="F88" t="s">
         <v>91</v>
@@ -2859,16 +2847,16 @@
         <v>3</v>
       </c>
       <c r="B89">
-        <v>0.8922791786567819</v>
+        <v>0.9268594839779544</v>
       </c>
       <c r="C89">
-        <v>0.8915010171461784</v>
+        <v>0.9610375532326751</v>
       </c>
       <c r="D89">
-        <v>0.6706037640848622</v>
+        <v>0.7485158295760674</v>
       </c>
       <c r="E89">
-        <v>0.7647928502203893</v>
+        <v>0.8414168625415916</v>
       </c>
       <c r="F89" t="s">
         <v>92</v>
@@ -2879,16 +2867,16 @@
         <v>4</v>
       </c>
       <c r="B90">
-        <v>0.7726869238648003</v>
+        <v>0.8063405355313856</v>
       </c>
       <c r="C90">
-        <v>0.6851053464864207</v>
+        <v>0.7195350445078212</v>
       </c>
       <c r="D90">
-        <v>0.2176298131025883</v>
+        <v>0.4173183996692892</v>
       </c>
       <c r="E90">
-        <v>0.3297229947142279</v>
+        <v>0.5261533260510767</v>
       </c>
       <c r="F90" t="s">
         <v>93</v>
@@ -2899,16 +2887,16 @@
         <v>5</v>
       </c>
       <c r="B91">
-        <v>0.9832122128469004</v>
+        <v>0.7539920987172609</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>0.6776190476190476</v>
       </c>
       <c r="D91">
-        <v>0.9358868220728059</v>
+        <v>0.1150797469482313</v>
       </c>
       <c r="E91">
-        <v>0.9665421520490357</v>
+        <v>0.193238532617717</v>
       </c>
       <c r="F91" t="s">
         <v>94</v>
@@ -2919,16 +2907,13 @@
         <v>6</v>
       </c>
       <c r="B92">
-        <v>0.7589230844266692</v>
+        <v>0.7391503682387942</v>
       </c>
       <c r="C92">
-        <v>0.6790909090909091</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>0.1500020067728584</v>
-      </c>
-      <c r="E92">
-        <v>0.2431564439148799</v>
+        <v>0</v>
       </c>
       <c r="F92" t="s">
         <v>95</v>
@@ -2939,16 +2924,16 @@
         <v>7</v>
       </c>
       <c r="B93">
-        <v>0.8774667121884603</v>
+        <v>0.9100960834999757</v>
       </c>
       <c r="C93">
-        <v>0.8687099198727104</v>
+        <v>0.9178054973249481</v>
       </c>
       <c r="D93">
-        <v>0.6233087009842457</v>
+        <v>0.719834906522213</v>
       </c>
       <c r="E93">
-        <v>0.7250142694904722</v>
+        <v>0.8051221410168778</v>
       </c>
       <c r="F93" t="s">
         <v>96</v>
@@ -2959,16 +2944,16 @@
         <v>8</v>
       </c>
       <c r="B94">
-        <v>0.7648441691459787</v>
+        <v>0.7548748963566307</v>
       </c>
       <c r="C94">
-        <v>0.6606060606060605</v>
+        <v>0.6251317523056653</v>
       </c>
       <c r="D94">
-        <v>0.199125351075191</v>
+        <v>0.1480654647160244</v>
       </c>
       <c r="E94">
-        <v>0.2986113697978105</v>
+        <v>0.2272696961892383</v>
       </c>
       <c r="F94" t="s">
         <v>97</v>
@@ -2979,16 +2964,16 @@
         <v>9</v>
       </c>
       <c r="B95">
-        <v>0.9891479295712824</v>
+        <v>0.7509779056723407</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>0.6366666666666667</v>
       </c>
       <c r="D95">
-        <v>0.9583494414715039</v>
+        <v>0.1077961202683116</v>
       </c>
       <c r="E95">
-        <v>0.9784112117818726</v>
+        <v>0.1810905036991994</v>
       </c>
       <c r="F95" t="s">
         <v>98</v>
@@ -2999,16 +2984,16 @@
         <v>10</v>
       </c>
       <c r="B96">
-        <v>0.9940740379456665</v>
+        <v>0.8883041506121054</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>0.8735469259894956</v>
       </c>
       <c r="D96">
-        <v>0.9762683868855918</v>
+        <v>0.6701691125087351</v>
       </c>
       <c r="E96">
-        <v>0.9879607528118722</v>
+        <v>0.7557334777504021</v>
       </c>
       <c r="F96" t="s">
         <v>99</v>
@@ -3019,16 +3004,16 @@
         <v>11</v>
       </c>
       <c r="B97">
-        <v>0.9911037409159636</v>
+        <v>0.765780617470614</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>0.6682706766917293</v>
       </c>
       <c r="D97">
-        <v>0.965717952597393</v>
+        <v>0.2129866257357613</v>
       </c>
       <c r="E97">
-        <v>0.9824231051712131</v>
+        <v>0.3193316032660295</v>
       </c>
       <c r="F97" t="s">
         <v>100</v>
@@ -3039,16 +3024,16 @@
         <v>12</v>
       </c>
       <c r="B98">
-        <v>0.9130322391845096</v>
+        <v>0.8844169145978638</v>
       </c>
       <c r="C98">
-        <v>0.9586200848854748</v>
+        <v>0.8580259974669913</v>
       </c>
       <c r="D98">
-        <v>0.6984262494208011</v>
+        <v>0.6725547852073934</v>
       </c>
       <c r="E98">
-        <v>0.807164273116654</v>
+        <v>0.7519149118521756</v>
       </c>
       <c r="F98" t="s">
         <v>101</v>
@@ -3059,16 +3044,10 @@
         <v>13</v>
       </c>
       <c r="B99">
-        <v>0.7865726966785349</v>
-      </c>
-      <c r="C99">
-        <v>0.6816856834098214</v>
+        <v>0.7401502219187437</v>
       </c>
       <c r="D99">
-        <v>0.3419241770373344</v>
-      </c>
-      <c r="E99">
-        <v>0.4540457488737285</v>
+        <v>0</v>
       </c>
       <c r="F99" t="s">
         <v>102</v>
@@ -3079,16 +3058,16 @@
         <v>14</v>
       </c>
       <c r="B100">
-        <v>0.9674096473686777</v>
+        <v>0.9871482222113837</v>
       </c>
       <c r="C100">
-        <v>0.9899509803921568</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <v>0.8799851042701092</v>
+        <v>0.9502298051837222</v>
       </c>
       <c r="E100">
-        <v>0.9313644221939906</v>
+        <v>0.9743855132247912</v>
       </c>
       <c r="F100" t="s">
         <v>103</v>
@@ -3099,16 +3078,16 @@
         <v>15</v>
       </c>
       <c r="B101">
-        <v>0.9881578305613813</v>
+        <v>0.7825732819587378</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>0.6807911302190478</v>
       </c>
       <c r="D101">
-        <v>0.953232287819862</v>
+        <v>0.3281468336126721</v>
       </c>
       <c r="E101">
-        <v>0.9758363206780727</v>
+        <v>0.4382396003123614</v>
       </c>
       <c r="F101" t="s">
         <v>104</v>
@@ -3119,16 +3098,16 @@
         <v>16</v>
       </c>
       <c r="B102">
-        <v>0.7382041652441105</v>
+        <v>0.7648246598058821</v>
       </c>
       <c r="C102">
-        <v>0.2777777777777777</v>
+        <v>0.6748067721751931</v>
       </c>
       <c r="D102">
-        <v>0.008421985815602837</v>
+        <v>0.2005010906592482</v>
       </c>
       <c r="E102">
-        <v>0.03999999999999999</v>
+        <v>0.3053968181336174</v>
       </c>
       <c r="F102" t="s">
         <v>105</v>
@@ -3139,16 +3118,16 @@
         <v>17</v>
       </c>
       <c r="B103">
-        <v>0.877393552163098</v>
+        <v>0.9081061308101253</v>
       </c>
       <c r="C103">
-        <v>0.8438445468046012</v>
+        <v>0.9374343787858391</v>
       </c>
       <c r="D103">
-        <v>0.6557568285426066</v>
+        <v>0.69271830534637</v>
       </c>
       <c r="E103">
-        <v>0.7352449192075676</v>
+        <v>0.7956309243689365</v>
       </c>
       <c r="F103" t="s">
         <v>106</v>
@@ -3159,10 +3138,16 @@
         <v>18</v>
       </c>
       <c r="B104">
-        <v>0.7401063259035263</v>
+        <v>0.7994098424620788</v>
+      </c>
+      <c r="C104">
+        <v>0.7030676794469898</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.4006209263632874</v>
+      </c>
+      <c r="E104">
+        <v>0.5087052809134039</v>
       </c>
       <c r="F104" t="s">
         <v>107</v>
@@ -3173,16 +3158,16 @@
         <v>19</v>
       </c>
       <c r="B105">
-        <v>0.9950690142905916</v>
+        <v>0.7717114568599717</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>0.6260262005749262</v>
       </c>
       <c r="D105">
-        <v>0.9814230094553544</v>
+        <v>0.3112815227100941</v>
       </c>
       <c r="E105">
-        <v>0.9905129016114502</v>
+        <v>0.4129013486463339</v>
       </c>
       <c r="F105" t="s">
         <v>108</v>
@@ -3193,16 +3178,16 @@
         <v>20</v>
       </c>
       <c r="B106">
-        <v>0.9960493586304443</v>
+        <v>0.9021704140857436</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>0.9343843831238789</v>
       </c>
       <c r="D106">
-        <v>0.9845070028011204</v>
+        <v>0.6699520072610206</v>
       </c>
       <c r="E106">
-        <v>0.992136367525335</v>
+        <v>0.7794260236118525</v>
       </c>
       <c r="F106" t="s">
         <v>109</v>
@@ -3213,16 +3198,16 @@
         <v>21</v>
       </c>
       <c r="B107">
-        <v>0.9950592596205432</v>
+        <v>0.8152319172803979</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>0.7418718637992832</v>
       </c>
       <c r="D107">
-        <v>0.9805272108843537</v>
+        <v>0.439750949514486</v>
       </c>
       <c r="E107">
-        <v>0.9900917065390751</v>
+        <v>0.549140480476886</v>
       </c>
       <c r="F107" t="s">
         <v>110</v>
@@ -3233,16 +3218,16 @@
         <v>22</v>
       </c>
       <c r="B108">
-        <v>0.9160220455543092</v>
+        <v>0.9179681022289421</v>
       </c>
       <c r="C108">
-        <v>0.9192839358070287</v>
+        <v>0.9420964515906365</v>
       </c>
       <c r="D108">
-        <v>0.7406176423157556</v>
+        <v>0.7297724689628404</v>
       </c>
       <c r="E108">
-        <v>0.8200860666878477</v>
+        <v>0.821401642782717</v>
       </c>
       <c r="F108" t="s">
         <v>111</v>
@@ -3253,16 +3238,16 @@
         <v>23</v>
       </c>
       <c r="B109">
-        <v>0.775652343559479</v>
+        <v>0.8053650685265572</v>
       </c>
       <c r="C109">
-        <v>0.7016094584286804</v>
+        <v>0.738143372574612</v>
       </c>
       <c r="D109">
-        <v>0.2268252821285983</v>
+        <v>0.3982615627703462</v>
       </c>
       <c r="E109">
-        <v>0.3387740760965914</v>
+        <v>0.5142059978906304</v>
       </c>
       <c r="F109" t="s">
         <v>112</v>
@@ -3273,16 +3258,16 @@
         <v>24</v>
       </c>
       <c r="B110">
-        <v>0.9871579768814319</v>
+        <v>0.9673950153636053</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
       <c r="D110">
-        <v>0.9495408850408851</v>
+        <v>0.874412792370617</v>
       </c>
       <c r="E110">
-        <v>0.9738179276866946</v>
+        <v>0.9326447956327474</v>
       </c>
       <c r="F110" t="s">
         <v>113</v>
@@ -3293,16 +3278,16 @@
         <v>25</v>
       </c>
       <c r="B111">
-        <v>0.9891381749012339</v>
+        <v>0.7500414573477052</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>0.6733333333333332</v>
       </c>
       <c r="D111">
-        <v>0.9603165093971999</v>
+        <v>0.09579754536651089</v>
       </c>
       <c r="E111">
-        <v>0.9795290302329477</v>
+        <v>0.1646200949015507</v>
       </c>
       <c r="F111" t="s">
         <v>114</v>
@@ -3313,16 +3298,16 @@
         <v>26</v>
       </c>
       <c r="B112">
-        <v>0.9891332975662099</v>
+        <v>0.9021996780958885</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>0.9378412698412697</v>
       </c>
       <c r="D112">
-        <v>0.9578084925148762</v>
+        <v>0.6740879977722083</v>
       </c>
       <c r="E112">
-        <v>0.9783222780931334</v>
+        <v>0.780209152523611</v>
       </c>
       <c r="F112" t="s">
         <v>115</v>
@@ -3333,16 +3318,16 @@
         <v>27</v>
       </c>
       <c r="B113">
-        <v>0.9871628542164561</v>
+        <v>0.7786128859191338</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>0.6693816425120773</v>
       </c>
       <c r="D113">
-        <v>0.9518532122929457</v>
+        <v>0.3126898697813955</v>
       </c>
       <c r="E113">
-        <v>0.9751533319235183</v>
+        <v>0.4203410852713178</v>
       </c>
       <c r="F113" t="s">
         <v>116</v>
@@ -3353,16 +3338,16 @@
         <v>28</v>
       </c>
       <c r="B114">
-        <v>0.9061356874603718</v>
+        <v>0.8991903623859923</v>
       </c>
       <c r="C114">
-        <v>0.925987999996208</v>
+        <v>0.9207201138255158</v>
       </c>
       <c r="D114">
-        <v>0.6922900805472801</v>
+        <v>0.6668472004014738</v>
       </c>
       <c r="E114">
-        <v>0.7912041299066617</v>
+        <v>0.7715187709247114</v>
       </c>
       <c r="F114" t="s">
         <v>117</v>
@@ -3373,16 +3358,16 @@
         <v>29</v>
       </c>
       <c r="B115">
-        <v>0.7687655465053893</v>
+        <v>0.7598351460761841</v>
       </c>
       <c r="C115">
-        <v>0.7217878787878789</v>
+        <v>0.6447649873346467</v>
       </c>
       <c r="D115">
-        <v>0.2015821494647813</v>
+        <v>0.1723373674828783</v>
       </c>
       <c r="E115">
-        <v>0.3063998033943389</v>
+        <v>0.2572635994982857</v>
       </c>
       <c r="F115" t="s">
         <v>118</v>
@@ -3393,16 +3378,16 @@
         <v>30</v>
       </c>
       <c r="B116">
-        <v>0.9703604350582842</v>
+        <v>0.9644247183339024</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>0.9859357696566999</v>
       </c>
       <c r="D116">
-        <v>0.8859178749755392</v>
+        <v>0.873544626218681</v>
       </c>
       <c r="E116">
-        <v>0.93949033545937</v>
+        <v>0.9258567525858746</v>
       </c>
       <c r="F116" t="s">
         <v>119</v>
@@ -3413,16 +3398,16 @@
         <v>31</v>
       </c>
       <c r="B117">
-        <v>0.9970394576403454</v>
+        <v>0.8764668585085109</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>0.8649941724941724</v>
       </c>
       <c r="D117">
-        <v>0.9873375262054507</v>
+        <v>0.6183352084447641</v>
       </c>
       <c r="E117">
-        <v>0.9935497835497836</v>
+        <v>0.7209893805517622</v>
       </c>
       <c r="F117" t="s">
         <v>120</v>
@@ -3433,16 +3418,16 @@
         <v>32</v>
       </c>
       <c r="B118">
-        <v>0.9950641369555676</v>
+        <v>0.7579134760766717</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>0.6296428571428572</v>
       </c>
       <c r="D118">
-        <v>0.98160791711245</v>
+        <v>0.1813828689370485</v>
       </c>
       <c r="E118">
-        <v>0.9906875794502568</v>
+        <v>0.2798489806834502</v>
       </c>
       <c r="F118" t="s">
         <v>121</v>
@@ -3453,16 +3438,16 @@
         <v>33</v>
       </c>
       <c r="B119">
-        <v>0.9960444812954201</v>
+        <v>0.9683704823684339</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
       <c r="D119">
-        <v>0.9843137254901961</v>
+        <v>0.8799154019111082</v>
       </c>
       <c r="E119">
-        <v>0.9919591959195919</v>
+        <v>0.9358670197116797</v>
       </c>
       <c r="F119" t="s">
         <v>122</v>
@@ -3473,16 +3458,16 @@
         <v>34</v>
       </c>
       <c r="B120">
-        <v>0.9673803833585328</v>
+        <v>0.9703555577232599</v>
       </c>
       <c r="C120">
-        <v>0.9816666666666667</v>
+        <v>1</v>
       </c>
       <c r="D120">
-        <v>0.8880002123429735</v>
+        <v>0.8857533863985475</v>
       </c>
       <c r="E120">
-        <v>0.932350724943199</v>
+        <v>0.9393151985417907</v>
       </c>
       <c r="F120" t="s">
         <v>123</v>
@@ -3493,16 +3478,16 @@
         <v>35</v>
       </c>
       <c r="B121">
-        <v>0.9841925571867531</v>
+        <v>0.7845583573135638</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>0.6630455130455131</v>
       </c>
       <c r="D121">
-        <v>0.9379524295289732</v>
+        <v>0.3337043599889841</v>
       </c>
       <c r="E121">
-        <v>0.9678160186629178</v>
+        <v>0.4350146002447713</v>
       </c>
       <c r="F121" t="s">
         <v>124</v>
@@ -3513,16 +3498,16 @@
         <v>36</v>
       </c>
       <c r="B122">
-        <v>0.7579378627517924</v>
+        <v>0.7628981124713456</v>
       </c>
       <c r="C122">
-        <v>0.690157881334352</v>
+        <v>0.6415686274509804</v>
       </c>
       <c r="D122">
-        <v>0.141007075201322</v>
+        <v>0.2052654947444916</v>
       </c>
       <c r="E122">
-        <v>0.2299502531366938</v>
+        <v>0.3094619347073221</v>
       </c>
       <c r="F122" t="s">
         <v>125</v>
@@ -3533,16 +3518,16 @@
         <v>37</v>
       </c>
       <c r="B123">
-        <v>0.8804711505633321</v>
+        <v>0.9061405647953957</v>
       </c>
       <c r="C123">
-        <v>0.8606653776606983</v>
+        <v>0.9471184371184371</v>
       </c>
       <c r="D123">
-        <v>0.6408883485064089</v>
+        <v>0.6822339261548989</v>
       </c>
       <c r="E123">
-        <v>0.732786541609612</v>
+        <v>0.7910383509777373</v>
       </c>
       <c r="F123" t="s">
         <v>126</v>
@@ -3553,16 +3538,16 @@
         <v>38</v>
       </c>
       <c r="B124">
-        <v>0.7598790420914012</v>
+        <v>0.7994293518021753</v>
       </c>
       <c r="C124">
-        <v>0.658603896103896</v>
+        <v>0.7139490968801314</v>
       </c>
       <c r="D124">
-        <v>0.186579232088666</v>
+        <v>0.3843646596031814</v>
       </c>
       <c r="E124">
-        <v>0.2872344478386836</v>
+        <v>0.497588701307669</v>
       </c>
       <c r="F124" t="s">
         <v>127</v>
@@ -3573,16 +3558,16 @@
         <v>39</v>
       </c>
       <c r="B125">
-        <v>0.9901233965761108</v>
+        <v>0.7747207725698677</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>0.6571370455123315</v>
       </c>
       <c r="D125">
-        <v>0.9625688338388085</v>
+        <v>0.2826177144990135</v>
       </c>
       <c r="E125">
-        <v>0.980900399146013</v>
+        <v>0.3925495923086284</v>
       </c>
       <c r="F125" t="s">
         <v>128</v>
@@ -3593,16 +3578,16 @@
         <v>40</v>
       </c>
       <c r="B126">
-        <v>0.9930936936058139</v>
+        <v>0.9110520411647076</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>0.9546336996336997</v>
       </c>
       <c r="D126">
-        <v>0.9749850357839946</v>
+        <v>0.6980272108843538</v>
       </c>
       <c r="E126">
-        <v>0.987066027066027</v>
+        <v>0.8029521080142015</v>
       </c>
       <c r="F126" t="s">
         <v>129</v>
@@ -3613,16 +3598,16 @@
         <v>41</v>
       </c>
       <c r="B127">
-        <v>0.9901233965761108</v>
+        <v>0.8122079695654294</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>0.7315906562847608</v>
       </c>
       <c r="D127">
-        <v>0.962466484233293</v>
+        <v>0.4396706850287205</v>
       </c>
       <c r="E127">
-        <v>0.9808074466490309</v>
+        <v>0.5464007988398232</v>
       </c>
       <c r="F127" t="s">
         <v>130</v>
@@ -3633,16 +3618,16 @@
         <v>42</v>
       </c>
       <c r="B128">
-        <v>0.911032531824611</v>
+        <v>0.9100521874847584</v>
       </c>
       <c r="C128">
-        <v>0.9384552845528455</v>
+        <v>0.9377613446933086</v>
       </c>
       <c r="D128">
-        <v>0.7031638851059044</v>
+        <v>0.7064538103406027</v>
       </c>
       <c r="E128">
-        <v>0.8017841523588182</v>
+        <v>0.8036712897676557</v>
       </c>
       <c r="F128" t="s">
         <v>131</v>
@@ -3653,16 +3638,16 @@
         <v>43</v>
       </c>
       <c r="B129">
-        <v>0.7845486026435156</v>
+        <v>0.8053406818514365</v>
       </c>
       <c r="C129">
-        <v>0.6807767833255089</v>
+        <v>0.7360975430216581</v>
       </c>
       <c r="D129">
-        <v>0.3230679735179314</v>
+        <v>0.4025499198816714</v>
       </c>
       <c r="E129">
-        <v>0.43516785187621</v>
+        <v>0.5171732594390971</v>
       </c>
       <c r="F129" t="s">
         <v>132</v>
@@ -3673,16 +3658,16 @@
         <v>44</v>
       </c>
       <c r="B130">
-        <v>0.9664097936887284</v>
+        <v>0.9703604350582842</v>
       </c>
       <c r="C130">
-        <v>0.9965517241379309</v>
+        <v>1</v>
       </c>
       <c r="D130">
-        <v>0.8719276168965611</v>
+        <v>0.8867046609657446</v>
       </c>
       <c r="E130">
-        <v>0.9294604439127468</v>
+        <v>0.939513012008739</v>
       </c>
       <c r="F130" t="s">
         <v>133</v>
@@ -3693,16 +3678,16 @@
         <v>45</v>
       </c>
       <c r="B131">
-        <v>0.9851875335316784</v>
+        <v>0.750002438667512</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>0.5944139194139193</v>
       </c>
       <c r="D131">
-        <v>0.9444660894660896</v>
+        <v>0.09676815716615468</v>
       </c>
       <c r="E131">
-        <v>0.9713193069686785</v>
+        <v>0.165151635041964</v>
       </c>
       <c r="F131" t="s">
         <v>134</v>
@@ -3713,16 +3698,16 @@
         <v>46</v>
       </c>
       <c r="B132">
-        <v>0.9802711798273425</v>
+        <v>0.9041847534507145</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>0.9228972830018126</v>
       </c>
       <c r="D132">
-        <v>0.9223877799187397</v>
+        <v>0.6906551925726671</v>
       </c>
       <c r="E132">
-        <v>0.9584445322911017</v>
+        <v>0.7865998745721144</v>
       </c>
       <c r="F132" t="s">
         <v>135</v>
@@ -3733,16 +3718,16 @@
         <v>47</v>
       </c>
       <c r="B133">
-        <v>0.9832073355118762</v>
+        <v>0.776710725259718</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>0.655061037318153</v>
       </c>
       <c r="D133">
-        <v>0.9320044789303085</v>
+        <v>0.2834628190899001</v>
       </c>
       <c r="E133">
-        <v>0.9642995773413297</v>
+        <v>0.392356649865545</v>
       </c>
       <c r="F133" t="s">
         <v>136</v>
@@ -3753,16 +3738,16 @@
         <v>48</v>
       </c>
       <c r="B134">
-        <v>0.9021313954055504</v>
+        <v>0.9071404184753451</v>
       </c>
       <c r="C134">
-        <v>0.9415677013045436</v>
+        <v>0.9383383839096291</v>
       </c>
       <c r="D134">
-        <v>0.6731106003169302</v>
+        <v>0.6893309218554974</v>
       </c>
       <c r="E134">
-        <v>0.7806432611807751</v>
+        <v>0.794496061333923</v>
       </c>
       <c r="F134" t="s">
         <v>137</v>
@@ -3773,16 +3758,16 @@
         <v>49</v>
       </c>
       <c r="B135">
-        <v>0.7885528946983367</v>
+        <v>0.760888650441399</v>
       </c>
       <c r="C135">
-        <v>0.7129316770186336</v>
+        <v>0.6966666666666665</v>
       </c>
       <c r="D135">
-        <v>0.2990206648697215</v>
+        <v>0.1555621758799515</v>
       </c>
       <c r="E135">
-        <v>0.420464097402389</v>
+        <v>0.2462197472692225</v>
       </c>
       <c r="F135" t="s">
         <v>138</v>
@@ -3793,16 +3778,16 @@
         <v>50</v>
       </c>
       <c r="B136">
-        <v>0.9446520021460275</v>
+        <v>0.9683851143735062</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>0.996078431372549</v>
       </c>
       <c r="D136">
-        <v>0.7851614199546952</v>
+        <v>0.8858862418184452</v>
       </c>
       <c r="E136">
-        <v>0.8787250404781627</v>
+        <v>0.9367162100125352</v>
       </c>
       <c r="F136" t="s">
         <v>139</v>
@@ -3813,16 +3798,16 @@
         <v>51</v>
       </c>
       <c r="B137">
-        <v>0.9950543822855191</v>
+        <v>0.879471296883383</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>0.8549910554561718</v>
       </c>
       <c r="D137">
-        <v>0.9804435107376284</v>
+        <v>0.6408224936067277</v>
       </c>
       <c r="E137">
-        <v>0.9900725456329417</v>
+        <v>0.7310255490811295</v>
       </c>
       <c r="F137" t="s">
         <v>140</v>
@@ -3833,16 +3818,16 @@
         <v>52</v>
       </c>
       <c r="B138">
-        <v>0.9940740379456665</v>
+        <v>0.7707847632053845</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>0.6979699248120299</v>
       </c>
       <c r="D138">
-        <v>0.9779456377888629</v>
+        <v>0.2100375939849624</v>
       </c>
       <c r="E138">
-        <v>0.9887403532564824</v>
+        <v>0.3213961849595526</v>
       </c>
       <c r="F138" t="s">
         <v>141</v>
@@ -3853,16 +3838,16 @@
         <v>53</v>
       </c>
       <c r="B139">
-        <v>0.9950641369555676</v>
+        <v>0.967385260693557</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>0.9955555555555555</v>
       </c>
       <c r="D139">
-        <v>0.9818974720987651</v>
+        <v>0.874431270483902</v>
       </c>
       <c r="E139">
-        <v>0.9908342097946058</v>
+        <v>0.9305533534406611</v>
       </c>
       <c r="F139" t="s">
         <v>142</v>
@@ -3873,16 +3858,16 @@
         <v>54</v>
       </c>
       <c r="B140">
-        <v>0.942686436131298</v>
+        <v>0.9713554114032092</v>
       </c>
       <c r="C140">
-        <v>0.9951219512195122</v>
+        <v>1</v>
       </c>
       <c r="D140">
-        <v>0.786196902921223</v>
+        <v>0.8864741659375615</v>
       </c>
       <c r="E140">
-        <v>0.8777011918059276</v>
+        <v>0.9386635475593291</v>
       </c>
       <c r="F140" t="s">
         <v>143</v>
@@ -3893,16 +3878,16 @@
         <v>55</v>
       </c>
       <c r="B141">
-        <v>0.9881529532263571</v>
+        <v>0.7806857533043944</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>0.6927095516569202</v>
       </c>
       <c r="D141">
-        <v>0.9560923858354318</v>
+        <v>0.2744201128727353</v>
       </c>
       <c r="E141">
-        <v>0.9772962203416229</v>
+        <v>0.3899630420344193</v>
       </c>
       <c r="F141" t="s">
         <v>144</v>
@@ -3913,16 +3898,16 @@
         <v>56</v>
       </c>
       <c r="B142">
-        <v>0.9861532458664586</v>
+        <v>0.9001999707359898</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>0.9277522172949002</v>
       </c>
       <c r="D142">
-        <v>0.9461074493793987</v>
+        <v>0.6724438288058243</v>
       </c>
       <c r="E142">
-        <v>0.9720599149278396</v>
+        <v>0.7784669612444022</v>
       </c>
       <c r="F142" t="s">
         <v>145</v>
@@ -3933,16 +3918,16 @@
         <v>57</v>
       </c>
       <c r="B143">
-        <v>0.9851631468565575</v>
+        <v>0.80034141345169</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>0.7062427591383947</v>
       </c>
       <c r="D143">
-        <v>0.9411155776559159</v>
+        <v>0.4043725014041696</v>
       </c>
       <c r="E143">
-        <v>0.9692969327728911</v>
+        <v>0.5127997055423599</v>
       </c>
       <c r="F143" t="s">
         <v>146</v>
@@ -3953,16 +3938,16 @@
         <v>58</v>
       </c>
       <c r="B144">
-        <v>0.9071013997951519</v>
+        <v>0.9060917914451544</v>
       </c>
       <c r="C144">
-        <v>0.9224645836960009</v>
+        <v>0.93484088474837</v>
       </c>
       <c r="D144">
-        <v>0.6974593067715406</v>
+        <v>0.6890477598213113</v>
       </c>
       <c r="E144">
-        <v>0.7941304304600253</v>
+        <v>0.7909242349064896</v>
       </c>
       <c r="F144" t="s">
         <v>147</v>
@@ -3973,16 +3958,16 @@
         <v>59</v>
       </c>
       <c r="B145">
-        <v>0.760898405111447</v>
+        <v>0.8063259035263132</v>
       </c>
       <c r="C145">
-        <v>0.6803018575851393</v>
+        <v>0.7454400658908084</v>
       </c>
       <c r="D145">
-        <v>0.1890848444641014</v>
+        <v>0.3839698833602966</v>
       </c>
       <c r="E145">
-        <v>0.2867522831050229</v>
+        <v>0.5058596423391831</v>
       </c>
       <c r="F145" t="s">
         <v>148</v>
@@ -3993,16 +3978,16 @@
         <v>60</v>
       </c>
       <c r="B146">
-        <v>0.9703701897283323</v>
+        <v>0.9377359410817929</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>0.9675050657659353</v>
       </c>
       <c r="D146">
-        <v>0.8885853096179183</v>
+        <v>0.7931795135184965</v>
       </c>
       <c r="E146">
-        <v>0.940713019173586</v>
+        <v>0.8691161631463717</v>
       </c>
       <c r="F146" t="s">
         <v>149</v>
@@ -4013,16 +3998,16 @@
         <v>61</v>
       </c>
       <c r="B147">
-        <v>0.9940642832756182</v>
+        <v>0.8952299663463883</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>0.9239492311860733</v>
       </c>
       <c r="D147">
-        <v>0.9782270322270321</v>
+        <v>0.6552217593727028</v>
       </c>
       <c r="E147">
-        <v>0.9889337397460929</v>
+        <v>0.7650035687550594</v>
       </c>
       <c r="F147" t="s">
         <v>150</v>
@@ -4033,16 +4018,16 @@
         <v>62</v>
       </c>
       <c r="B148">
-        <v>0.9940740379456665</v>
+        <v>0.8053065405062674</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>0.7223928944618599</v>
       </c>
       <c r="D148">
-        <v>0.9776968530547251</v>
+        <v>0.4115915119363396</v>
       </c>
       <c r="E148">
-        <v>0.9886325038208632</v>
+        <v>0.5205775692793237</v>
       </c>
       <c r="F148" t="s">
         <v>151</v>
@@ -4053,16 +4038,16 @@
         <v>63</v>
       </c>
       <c r="B149">
-        <v>0.9930888162707896</v>
+        <v>0.9406818514363751</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>0.9730149283340772</v>
       </c>
       <c r="D149">
-        <v>0.9739010989010989</v>
+        <v>0.7957921830824954</v>
       </c>
       <c r="E149">
-        <v>0.9867186973069325</v>
+        <v>0.8743452950558215</v>
       </c>
       <c r="F149" t="s">
         <v>152</v>
@@ -4073,16 +4058,16 @@
         <v>64</v>
       </c>
       <c r="B150">
-        <v>0.9624640296541969</v>
+        <v>0.9437057991513438</v>
       </c>
       <c r="C150">
-        <v>0.982046511627907</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="D150">
-        <v>0.8697580155693363</v>
+        <v>0.7926564145028687</v>
       </c>
       <c r="E150">
-        <v>0.921865289963762</v>
+        <v>0.8800018299838903</v>
       </c>
       <c r="F150" t="s">
         <v>153</v>
@@ -4093,16 +4078,16 @@
         <v>65</v>
       </c>
       <c r="B151">
-        <v>0.9911232502560601</v>
+        <v>0.8992293810661854</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>0.9251346898715319</v>
       </c>
       <c r="D151">
-        <v>0.9676557151070899</v>
+        <v>0.6665285549054054</v>
       </c>
       <c r="E151">
-        <v>0.9833915884001648</v>
+        <v>0.772988987371966</v>
       </c>
       <c r="F151" t="s">
         <v>154</v>
@@ -4113,16 +4098,16 @@
         <v>66</v>
       </c>
       <c r="B152">
-        <v>0.9911086182509876</v>
+        <v>0.7707554991952397</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>0.6733333333333333</v>
       </c>
       <c r="D152">
-        <v>0.9645963091428931</v>
+        <v>0.2485381107662119</v>
       </c>
       <c r="E152">
-        <v>0.9818659789328832</v>
+        <v>0.3558001387568299</v>
       </c>
       <c r="F152" t="s">
         <v>155</v>
@@ -4133,16 +4118,16 @@
         <v>67</v>
       </c>
       <c r="B153">
-        <v>0.9901185192410867</v>
+        <v>0.9417109691264691</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>0.9906775067750677</v>
       </c>
       <c r="D153">
-        <v>0.9634927497756033</v>
+        <v>0.7877197174110255</v>
       </c>
       <c r="E153">
-        <v>0.981189006048233</v>
+        <v>0.8751759605089088</v>
       </c>
       <c r="F153" t="s">
         <v>156</v>
@@ -4153,16 +4138,16 @@
         <v>68</v>
       </c>
       <c r="B154">
-        <v>0.9486514168658247</v>
+        <v>0.9456518558259767</v>
       </c>
       <c r="C154">
-        <v>0.9955555555555555</v>
+        <v>0.9910784313725489</v>
       </c>
       <c r="D154">
-        <v>0.8105337631847028</v>
+        <v>0.7996419691241939</v>
       </c>
       <c r="E154">
-        <v>0.8927935319393929</v>
+        <v>0.8841176831119928</v>
       </c>
       <c r="F154" t="s">
         <v>157</v>
@@ -4173,16 +4158,16 @@
         <v>69</v>
       </c>
       <c r="B155">
-        <v>0.9980246793152222</v>
+        <v>0.9456811198361216</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>0.9869565217391305</v>
       </c>
       <c r="D155">
-        <v>0.9924113475177305</v>
+        <v>0.8028117944019399</v>
       </c>
       <c r="E155">
-        <v>0.9961687900966838</v>
+        <v>0.8850353462006183</v>
       </c>
       <c r="F155" t="s">
         <v>158</v>
@@ -4193,16 +4178,16 @@
         <v>0</v>
       </c>
       <c r="B156">
-        <v>0.9851777788616299</v>
+        <v>0.788562649368385</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>0.7133511586452763</v>
       </c>
       <c r="D156">
-        <v>0.944045612574725</v>
+        <v>0.3348267574046279</v>
       </c>
       <c r="E156">
-        <v>0.971158072521469</v>
+        <v>0.4473442607076891</v>
       </c>
       <c r="F156" t="s">
         <v>159</v>
@@ -4213,16 +4198,16 @@
         <v>1</v>
       </c>
       <c r="B157">
-        <v>0.7579281080817442</v>
+        <v>0.7588938204165243</v>
       </c>
       <c r="C157">
-        <v>0.7247619047619047</v>
+        <v>0.6172222222222222</v>
       </c>
       <c r="D157">
-        <v>0.1267680292455965</v>
+        <v>0.1984681460589451</v>
       </c>
       <c r="E157">
-        <v>0.2126751523766449</v>
+        <v>0.2988650121389738</v>
       </c>
       <c r="F157" t="s">
         <v>160</v>
@@ -4233,16 +4218,16 @@
         <v>2</v>
       </c>
       <c r="B158">
-        <v>0.8834463249280594</v>
+        <v>0.9100912061649515</v>
       </c>
       <c r="C158">
-        <v>0.871991066696949</v>
+        <v>0.9404909560723513</v>
       </c>
       <c r="D158">
-        <v>0.6487690631808279</v>
+        <v>0.6940523154120068</v>
       </c>
       <c r="E158">
-        <v>0.7424339589805633</v>
+        <v>0.7981462572195449</v>
       </c>
       <c r="F158" t="s">
         <v>161</v>
@@ -4253,16 +4238,16 @@
         <v>3</v>
       </c>
       <c r="B159">
-        <v>0.7667463298053944</v>
+        <v>0.8023996488318781</v>
       </c>
       <c r="C159">
-        <v>0.684446142093201</v>
+        <v>0.734344012204424</v>
       </c>
       <c r="D159">
-        <v>0.1829956369056759</v>
+        <v>0.368119823059213</v>
       </c>
       <c r="E159">
-        <v>0.2875670802038263</v>
+        <v>0.4878886137551713</v>
       </c>
       <c r="F159" t="s">
         <v>162</v>
@@ -4273,16 +4258,16 @@
         <v>4</v>
       </c>
       <c r="B160">
-        <v>0.9901233965761108</v>
+        <v>0.790537970053163</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>0.7023548290789671</v>
       </c>
       <c r="D160">
-        <v>0.962143401983219</v>
+        <v>0.3386222405045934</v>
       </c>
       <c r="E160">
-        <v>0.980440082399722</v>
+        <v>0.4564788241328577</v>
       </c>
       <c r="F160" t="s">
         <v>163</v>
@@ -4293,16 +4278,16 @@
         <v>5</v>
       </c>
       <c r="B161">
-        <v>0.9930936936058139</v>
+        <v>0.9071013997951519</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>0.9312460810882618</v>
       </c>
       <c r="D161">
-        <v>0.9735922114482658</v>
+        <v>0.6831658311450625</v>
       </c>
       <c r="E161">
-        <v>0.9864974388990406</v>
+        <v>0.7872541353383458</v>
       </c>
       <c r="F161" t="s">
         <v>164</v>
@@ -4313,16 +4298,16 @@
         <v>6</v>
       </c>
       <c r="B162">
-        <v>0.992108471930937</v>
+        <v>0.8102521582207481</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>0.722468600343363</v>
       </c>
       <c r="D162">
-        <v>0.9693996073502715</v>
+        <v>0.4492096838735494</v>
       </c>
       <c r="E162">
-        <v>0.9842755042226387</v>
+        <v>0.5486705768171636</v>
       </c>
       <c r="F162" t="s">
         <v>165</v>
@@ -4333,16 +4318,16 @@
         <v>7</v>
       </c>
       <c r="B163">
-        <v>0.8991854850509682</v>
+        <v>0.9120665268497292</v>
       </c>
       <c r="C163">
-        <v>0.944299538773223</v>
+        <v>0.9268345623541361</v>
       </c>
       <c r="D163">
-        <v>0.6550119260584377</v>
+        <v>0.7173643566344247</v>
       </c>
       <c r="E163">
-        <v>0.7711402952115067</v>
+        <v>0.8084510353638412</v>
       </c>
       <c r="F163" t="s">
         <v>166</v>
@@ -4353,16 +4338,16 @@
         <v>8</v>
       </c>
       <c r="B164">
-        <v>0.7885480173633128</v>
+        <v>0.8151831439301566</v>
       </c>
       <c r="C164">
-        <v>0.718601880877743</v>
+        <v>0.7548624330368752</v>
       </c>
       <c r="D164">
-        <v>0.3167804971529243</v>
+        <v>0.4272764607858948</v>
       </c>
       <c r="E164">
-        <v>0.4319431379259006</v>
+        <v>0.5441445643265581</v>
       </c>
       <c r="F164" t="s">
         <v>167</v>
@@ -4373,16 +4358,16 @@
         <v>9</v>
       </c>
       <c r="B165">
-        <v>0.9713407793981368</v>
+        <v>0.969360581378335</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>0.9951219512195122</v>
       </c>
       <c r="D165">
-        <v>0.8880671659119935</v>
+        <v>0.8866242724137461</v>
       </c>
       <c r="E165">
-        <v>0.9404925015713715</v>
+        <v>0.9372458695219997</v>
       </c>
       <c r="F165" t="s">
         <v>168</v>
@@ -4393,16 +4378,16 @@
         <v>10</v>
       </c>
       <c r="B166">
-        <v>0.9861581232014828</v>
+        <v>0.749968297322343</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>0.740952380952381</v>
       </c>
       <c r="D166">
-        <v>0.9471043246537422</v>
+        <v>0.08354441050093223</v>
       </c>
       <c r="E166">
-        <v>0.9726808753024075</v>
+        <v>0.1446276674921176</v>
       </c>
       <c r="F166" t="s">
         <v>169</v>
@@ -4413,16 +4398,16 @@
         <v>11</v>
       </c>
       <c r="B167">
-        <v>0.9831927035068038</v>
+        <v>0.9110422864946592</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>0.9433869122314904</v>
       </c>
       <c r="D167">
-        <v>0.9359835731803386</v>
+        <v>0.6943797313797313</v>
       </c>
       <c r="E167">
-        <v>0.9667726793687772</v>
+        <v>0.7997025809856926</v>
       </c>
       <c r="F167" t="s">
         <v>170</v>
@@ -4433,16 +4418,16 @@
         <v>12</v>
       </c>
       <c r="B168">
-        <v>0.9851680241915817</v>
+        <v>0.7786811686094717</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>0.6731298884100243</v>
       </c>
       <c r="D168">
-        <v>0.9442072161535915</v>
+        <v>0.3121927263942046</v>
       </c>
       <c r="E168">
-        <v>0.9710804535762092</v>
+        <v>0.4205111285410236</v>
       </c>
       <c r="F168" t="s">
         <v>171</v>
@@ -4453,16 +4438,16 @@
         <v>13</v>
       </c>
       <c r="B169">
-        <v>0.9031946544408136</v>
+        <v>0.9070818904550553</v>
       </c>
       <c r="C169">
-        <v>0.9422826296510507</v>
+        <v>0.9169297964492473</v>
       </c>
       <c r="D169">
-        <v>0.6710550022521395</v>
+        <v>0.7061091069597626</v>
       </c>
       <c r="E169">
-        <v>0.7834223366395425</v>
+        <v>0.7969888378719701</v>
       </c>
       <c r="F169" t="s">
         <v>172</v>
@@ -4473,16 +4458,16 @@
         <v>14</v>
       </c>
       <c r="B170">
-        <v>0.7915768424133054</v>
+        <v>0.7499878066624396</v>
       </c>
       <c r="C170">
-        <v>0.7340786749482403</v>
+        <v>0.687012987012987</v>
       </c>
       <c r="D170">
-        <v>0.3106025623312857</v>
+        <v>0.08412294411309706</v>
       </c>
       <c r="E170">
-        <v>0.4354301012811982</v>
+        <v>0.1481253420908593</v>
       </c>
       <c r="F170" t="s">
         <v>173</v>
@@ -4493,16 +4478,16 @@
         <v>15</v>
       </c>
       <c r="B171">
-        <v>0.9496073745305565</v>
+        <v>0.9683753597034581</v>
       </c>
       <c r="C171">
-        <v>0.9961538461538462</v>
+        <v>0.9958333333333332</v>
       </c>
       <c r="D171">
-        <v>0.8098639455782312</v>
+        <v>0.8837719116833729</v>
       </c>
       <c r="E171">
-        <v>0.8927159706264419</v>
+        <v>0.9362408448007782</v>
       </c>
       <c r="F171" t="s">
         <v>174</v>
@@ -4513,16 +4498,16 @@
         <v>16</v>
       </c>
       <c r="B172">
-        <v>0.9891235428961614</v>
+        <v>0.8804028678729943</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>0.8756485181485181</v>
       </c>
       <c r="D172">
-        <v>0.9612289392501185</v>
+        <v>0.6326456943580425</v>
       </c>
       <c r="E172">
-        <v>0.9797610214159608</v>
+        <v>0.7301729944519206</v>
       </c>
       <c r="F172" t="s">
         <v>175</v>
@@ -4533,16 +4518,16 @@
         <v>17</v>
       </c>
       <c r="B173">
-        <v>0.9930839389357654</v>
+        <v>0.7568892357216017</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>0.6486446886446886</v>
       </c>
       <c r="D173">
-        <v>0.9731550312432666</v>
+        <v>0.1493343398729816</v>
       </c>
       <c r="E173">
-        <v>0.9863368045782905</v>
+        <v>0.2415195867119051</v>
       </c>
       <c r="F173" t="s">
         <v>176</v>
@@ -4553,16 +4538,16 @@
         <v>18</v>
       </c>
       <c r="B174">
-        <v>0.9930839389357654</v>
+        <v>0.9703506803882359</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>0.9954545454545455</v>
       </c>
       <c r="D174">
-        <v>0.9726452119309261</v>
+        <v>0.8918253383429743</v>
       </c>
       <c r="E174">
-        <v>0.9860190925242474</v>
+        <v>0.940406411767167</v>
       </c>
       <c r="F174" t="s">
         <v>177</v>
@@ -4573,16 +4558,16 @@
         <v>19</v>
       </c>
       <c r="B175">
-        <v>0.9506023508754815</v>
+        <v>0.9713602887382334</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>0.8041949934123848</v>
+        <v>0.8854573643410854</v>
       </c>
       <c r="E175">
-        <v>0.8907438621429249</v>
+        <v>0.9386772151993744</v>
       </c>
       <c r="F175" t="s">
         <v>178</v>
@@ -4593,16 +4578,16 @@
         <v>20</v>
       </c>
       <c r="B176">
-        <v>0.9901136419060625</v>
+        <v>0.7786567819343511</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>0.6879637681159421</v>
       </c>
       <c r="D176">
-        <v>0.9627815974810762</v>
+        <v>0.3019584592730373</v>
       </c>
       <c r="E176">
-        <v>0.9809825884408866</v>
+        <v>0.4121559554996088</v>
       </c>
       <c r="F176" t="s">
         <v>179</v>
@@ -4613,16 +4598,16 @@
         <v>21</v>
       </c>
       <c r="B177">
-        <v>0.9861776325415793</v>
+        <v>0.9031556357606204</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>0.9479788838612369</v>
       </c>
       <c r="D177">
-        <v>0.949951212918131</v>
+        <v>0.6664810982911998</v>
       </c>
       <c r="E177">
-        <v>0.973907724083598</v>
+        <v>0.7821722970980328</v>
       </c>
       <c r="F177" t="s">
         <v>180</v>
@@ -4633,16 +4618,16 @@
         <v>22</v>
       </c>
       <c r="B178">
-        <v>0.9881383212212846</v>
+        <v>0.8131785592352339</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>0.7455151515151515</v>
       </c>
       <c r="D178">
-        <v>0.9532149253206658</v>
+        <v>0.4304216087330789</v>
       </c>
       <c r="E178">
-        <v>0.9757830908491902</v>
+        <v>0.5409740815582662</v>
       </c>
       <c r="F178" t="s">
         <v>181</v>
@@ -4653,16 +4638,16 @@
         <v>23</v>
       </c>
       <c r="B179">
-        <v>0.9130517485246061</v>
+        <v>0.9061015461152027</v>
       </c>
       <c r="C179">
-        <v>0.935878823073945</v>
+        <v>0.9525840825840826</v>
       </c>
       <c r="D179">
-        <v>0.7148233119154064</v>
+        <v>0.6730384171084981</v>
       </c>
       <c r="E179">
-        <v>0.8102144424337705</v>
+        <v>0.7881077704574115</v>
       </c>
       <c r="F179" t="s">
         <v>182</v>
@@ -4673,16 +4658,16 @@
         <v>24</v>
       </c>
       <c r="B180">
-        <v>0.7647710091206165</v>
+        <v>0.7984099887821294</v>
       </c>
       <c r="C180">
-        <v>0.7690134426976531</v>
+        <v>0.7266121185316232</v>
       </c>
       <c r="D180">
-        <v>0.1562560750796045</v>
+        <v>0.3703136252045827</v>
       </c>
       <c r="E180">
-        <v>0.2469327894327894</v>
+        <v>0.4858435725271988</v>
       </c>
       <c r="F180" t="s">
         <v>183</v>
@@ -4693,16 +4678,16 @@
         <v>25</v>
       </c>
       <c r="B181">
-        <v>0.9703506803882359</v>
+        <v>0.9506121055455299</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>0.9949999999999999</v>
       </c>
       <c r="D181">
-        <v>0.8854991130462828</v>
+        <v>0.8145348154670188</v>
       </c>
       <c r="E181">
-        <v>0.9391413215624969</v>
+        <v>0.894985326539406</v>
       </c>
       <c r="F181" t="s">
         <v>184</v>
@@ -4713,16 +4698,16 @@
         <v>26</v>
       </c>
       <c r="B182">
-        <v>0.9940789152806907</v>
+        <v>0.9051650977905673</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>0.9333224396937743</v>
       </c>
       <c r="D182">
-        <v>0.9771260968155377</v>
+        <v>0.6769130099624991</v>
       </c>
       <c r="E182">
-        <v>0.9883453841489015</v>
+        <v>0.7836258464887449</v>
       </c>
       <c r="F182" t="s">
         <v>185</v>
@@ -4733,16 +4718,16 @@
         <v>27</v>
       </c>
       <c r="B183">
-        <v>0.9950495049504952</v>
+        <v>0.8103350729161585</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>0.7229728020240354</v>
       </c>
       <c r="D183">
-        <v>0.9810718787035121</v>
+        <v>0.4449004803675857</v>
       </c>
       <c r="E183">
-        <v>0.9903252303252303</v>
+        <v>0.5463674763437714</v>
       </c>
       <c r="F183" t="s">
         <v>186</v>
@@ -4753,16 +4738,16 @@
         <v>28</v>
       </c>
       <c r="B184">
-        <v>0.9960444812954201</v>
+        <v>0.9446178608008584</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>0.9956521739130434</v>
       </c>
       <c r="D184">
-        <v>0.9851873038018834</v>
+        <v>0.7912762307944966</v>
       </c>
       <c r="E184">
-        <v>0.992495927012056</v>
+        <v>0.8792435327029416</v>
       </c>
       <c r="F184" t="s">
         <v>187</v>
@@ -4773,16 +4758,16 @@
         <v>29</v>
       </c>
       <c r="B185">
-        <v>0.9723406330780862</v>
+        <v>0.9495927425254841</v>
       </c>
       <c r="C185">
-        <v>0.9954545454545455</v>
+        <v>1</v>
       </c>
       <c r="D185">
-        <v>0.8947778692444592</v>
+        <v>0.8078003423591659</v>
       </c>
       <c r="E185">
-        <v>0.9420633844476793</v>
+        <v>0.8929634085557103</v>
       </c>
       <c r="F185" t="s">
         <v>188</v>
@@ -4793,16 +4778,16 @@
         <v>30</v>
       </c>
       <c r="B186">
-        <v>0.9891479295712824</v>
+        <v>0.8863385845973759</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>0.9002240084476927</v>
       </c>
       <c r="D186">
-        <v>0.9588557048511281</v>
+        <v>0.6321666508910481</v>
       </c>
       <c r="E186">
-        <v>0.9786537169384888</v>
+        <v>0.7417068219137185</v>
       </c>
       <c r="F186" t="s">
         <v>189</v>
@@ -4813,16 +4798,16 @@
         <v>31</v>
       </c>
       <c r="B187">
-        <v>0.9910988635809392</v>
+        <v>0.7637565234355949</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>0.6383582887700535</v>
       </c>
       <c r="D187">
-        <v>0.9644839570766717</v>
+        <v>0.2456923076923077</v>
       </c>
       <c r="E187">
-        <v>0.9817048359703227</v>
+        <v>0.3478439271020399</v>
       </c>
       <c r="F187" t="s">
         <v>190</v>
@@ -4833,16 +4818,16 @@
         <v>32</v>
       </c>
       <c r="B188">
-        <v>0.9901185192410867</v>
+        <v>0.9495927425254841</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>0.9952380952380953</v>
       </c>
       <c r="D188">
-        <v>0.9608333086022365</v>
+        <v>0.8082845259315847</v>
       </c>
       <c r="E188">
-        <v>0.9799346937865823</v>
+        <v>0.8911298091062086</v>
       </c>
       <c r="F188" t="s">
         <v>191</v>
@@ -4853,16 +4838,16 @@
         <v>33</v>
       </c>
       <c r="B189">
-        <v>0.9476369311808028</v>
+        <v>0.9495976198605082</v>
       </c>
       <c r="C189">
-        <v>0.9852183650615902</v>
+        <v>0.9954545454545455</v>
       </c>
       <c r="D189">
-        <v>0.8133467875044028</v>
+        <v>0.8105245653817083</v>
       </c>
       <c r="E189">
-        <v>0.8900203224027855</v>
+        <v>0.8934497361882385</v>
       </c>
       <c r="F189" t="s">
         <v>192</v>
@@ -4873,16 +4858,16 @@
         <v>34</v>
       </c>
       <c r="B190">
-        <v>0.9950592596205432</v>
+        <v>0.9505974735404574</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>0.9949999999999999</v>
       </c>
       <c r="D190">
-        <v>0.9798870056497175</v>
+        <v>0.8119056838517587</v>
       </c>
       <c r="E190">
-        <v>0.9896551724137932</v>
+        <v>0.8939282668672387</v>
       </c>
       <c r="F190" t="s">
         <v>193</v>
@@ -4893,16 +4878,16 @@
         <v>35</v>
       </c>
       <c r="B191">
-        <v>0.9851631468565575</v>
+        <v>0.7796858996244452</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>0.6852240546393469</v>
       </c>
       <c r="D191">
-        <v>0.9443710853041483</v>
+        <v>0.3038583441503471</v>
       </c>
       <c r="E191">
-        <v>0.9712182890737108</v>
+        <v>0.4165398737550636</v>
       </c>
       <c r="F191" t="s">
         <v>194</v>
@@ -4913,16 +4898,16 @@
         <v>36</v>
       </c>
       <c r="B192">
-        <v>0.9841876798517291</v>
+        <v>0.9041213480954007</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>0.935399668843331</v>
       </c>
       <c r="D192">
-        <v>0.9399531921053901</v>
+        <v>0.678322762508809</v>
       </c>
       <c r="E192">
-        <v>0.9689141967992285</v>
+        <v>0.785436835232617</v>
       </c>
       <c r="F192" t="s">
         <v>195</v>
@@ -4933,16 +4918,16 @@
         <v>37</v>
       </c>
       <c r="B193">
-        <v>0.9861678778715308</v>
+        <v>0.7993561917768132</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>0.7108174129879405</v>
       </c>
       <c r="D193">
-        <v>0.9474646104723956</v>
+        <v>0.3922703645560789</v>
       </c>
       <c r="E193">
-        <v>0.9727012948985475</v>
+        <v>0.501466472319305</v>
       </c>
       <c r="F193" t="s">
         <v>196</v>
@@ -4953,16 +4938,16 @@
         <v>38</v>
       </c>
       <c r="B194">
-        <v>0.89132322099205</v>
+        <v>0.9090767204799297</v>
       </c>
       <c r="C194">
-        <v>0.9183382737193421</v>
+        <v>0.9275953620314523</v>
       </c>
       <c r="D194">
-        <v>0.6362065146499637</v>
+        <v>0.7021765646546659</v>
       </c>
       <c r="E194">
-        <v>0.747930072589841</v>
+        <v>0.7982467245909209</v>
       </c>
       <c r="F194" t="s">
         <v>197</v>
@@ -4973,16 +4958,16 @@
         <v>39</v>
       </c>
       <c r="B195">
-        <v>0.7845924986587327</v>
+        <v>0.8063063941862166</v>
       </c>
       <c r="C195">
-        <v>0.7040306752071459</v>
+        <v>0.7805015673981192</v>
       </c>
       <c r="D195">
-        <v>0.3056643026004728</v>
+        <v>0.3778021068636758</v>
       </c>
       <c r="E195">
-        <v>0.4194442343066914</v>
+        <v>0.5008653264022459</v>
       </c>
       <c r="F195" t="s">
         <v>198</v>
@@ -4993,16 +4978,16 @@
         <v>40</v>
       </c>
       <c r="B196">
-        <v>0.9506072282105059</v>
+        <v>0.9397015070965224</v>
       </c>
       <c r="C196">
-        <v>0.9962962962962962</v>
+        <v>0.9817332641411521</v>
       </c>
       <c r="D196">
-        <v>0.8072030651340997</v>
+        <v>0.7886573196918025</v>
       </c>
       <c r="E196">
-        <v>0.889817346396294</v>
+        <v>0.8741959140291871</v>
       </c>
       <c r="F196" t="s">
         <v>199</v>
@@ -5013,16 +4998,16 @@
         <v>41</v>
       </c>
       <c r="B197">
-        <v>0.9911037409159636</v>
+        <v>0.8992293810661854</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>0.9308386820710313</v>
       </c>
       <c r="D197">
-        <v>0.965483538567881</v>
+        <v>0.6637053095392325</v>
       </c>
       <c r="E197">
-        <v>0.9823779728883852</v>
+        <v>0.7728587859365109</v>
       </c>
       <c r="F197" t="s">
         <v>200</v>
@@ -5033,16 +5018,16 @@
         <v>42</v>
       </c>
       <c r="B198">
-        <v>0.9901233965761108</v>
+        <v>0.8043603375115836</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>0.7216332497911445</v>
       </c>
       <c r="D198">
-        <v>0.9606188840884753</v>
+        <v>0.4020523272852737</v>
       </c>
       <c r="E198">
-        <v>0.97981060197367</v>
+        <v>0.5127824734041344</v>
       </c>
       <c r="F198" t="s">
         <v>201</v>
@@ -5053,16 +5038,16 @@
         <v>43</v>
       </c>
       <c r="B199">
-        <v>0.9930839389357654</v>
+        <v>0.9456567331610009</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>0.9894946808510638</v>
       </c>
       <c r="D199">
-        <v>0.9738271728271728</v>
+        <v>0.7997447662168758</v>
       </c>
       <c r="E199">
-        <v>0.9866489509150311</v>
+        <v>0.8833297635802031</v>
       </c>
       <c r="F199" t="s">
         <v>202</v>
@@ -5073,16 +5058,16 @@
         <v>44</v>
       </c>
       <c r="B200">
-        <v>0.9495927425254841</v>
+        <v>0.9486075208506073</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>0.9951219512195122</v>
       </c>
       <c r="D200">
-        <v>0.8040636566786425</v>
+        <v>0.8095147463374065</v>
       </c>
       <c r="E200">
-        <v>0.8896987959665532</v>
+        <v>0.8917166258002853</v>
       </c>
       <c r="F200" t="s">
         <v>203</v>
@@ -5093,16 +5078,16 @@
         <v>45</v>
       </c>
       <c r="B201">
-        <v>0.9881383212212846</v>
+        <v>0.8982685460664293</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>0.9298533922218134</v>
       </c>
       <c r="D201">
-        <v>0.953459990399173</v>
+        <v>0.6607061927021275</v>
       </c>
       <c r="E201">
-        <v>0.9760824870583577</v>
+        <v>0.7709836369171775</v>
       </c>
       <c r="F201" t="s">
         <v>204</v>
@@ -5113,16 +5098,16 @@
         <v>46</v>
       </c>
       <c r="B202">
-        <v>0.9861727552065552</v>
+        <v>0.7707506218602156</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>0.6850793650793652</v>
       </c>
       <c r="D202">
-        <v>0.945674338432959</v>
+        <v>0.2573108595664987</v>
       </c>
       <c r="E202">
-        <v>0.9719039536731195</v>
+        <v>0.3663078626799557</v>
       </c>
       <c r="F202" t="s">
         <v>205</v>
@@ -5133,16 +5118,16 @@
         <v>47</v>
       </c>
       <c r="B203">
-        <v>0.9841876798517291</v>
+        <v>0.9525679168902113</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>0.939280347677651</v>
+        <v>0.8248592262168011</v>
       </c>
       <c r="E203">
-        <v>0.9686567323044504</v>
+        <v>0.903202418386812</v>
       </c>
       <c r="F203" t="s">
         <v>206</v>
@@ -5153,16 +5138,16 @@
         <v>48</v>
       </c>
       <c r="B204">
-        <v>0.9298102716675608</v>
+        <v>0.9486221528556797</v>
       </c>
       <c r="C204">
-        <v>0.9949999999999999</v>
+        <v>0.9905555555555555</v>
       </c>
       <c r="D204">
-        <v>0.7344763550428175</v>
+        <v>0.8103116809740655</v>
       </c>
       <c r="E204">
-        <v>0.8440428292529134</v>
+        <v>0.8907482606387891</v>
       </c>
       <c r="F204" t="s">
         <v>207</v>
@@ -5173,16 +5158,16 @@
         <v>49</v>
       </c>
       <c r="B205">
-        <v>0.9960444812954201</v>
+        <v>0.9515631858752378</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>0.9847605224963715</v>
+        <v>0.8141055167022333</v>
       </c>
       <c r="E205">
-        <v>0.9922703510082151</v>
+        <v>0.897242045870362</v>
       </c>
       <c r="F205" t="s">
         <v>208</v>
@@ -5193,16 +5178,16 @@
         <v>50</v>
       </c>
       <c r="B206">
-        <v>0.9881529532263571</v>
+        <v>0.8932985416768278</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>0.9196984063895828</v>
       </c>
       <c r="D206">
-        <v>0.955178223336118</v>
+        <v>0.6478155746825698</v>
       </c>
       <c r="E206">
-        <v>0.9768817990371084</v>
+        <v>0.7581115108577332</v>
       </c>
       <c r="F206" t="s">
         <v>209</v>
@@ -5213,16 +5198,16 @@
         <v>51</v>
       </c>
       <c r="B207">
-        <v>0.9891235428961614</v>
+        <v>0.805291908501195</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>0.7278655462184874</v>
       </c>
       <c r="D207">
-        <v>0.9575276968424934</v>
+        <v>0.4075482836812886</v>
       </c>
       <c r="E207">
-        <v>0.9782021164676031</v>
+        <v>0.5195653703797894</v>
       </c>
       <c r="F207" t="s">
         <v>210</v>
@@ -5233,16 +5218,16 @@
         <v>52</v>
       </c>
       <c r="B208">
-        <v>0.9871677315514802</v>
+        <v>0.9189728332439155</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>0.9684895884895885</v>
       </c>
       <c r="D208">
-        <v>0.947660439700089</v>
+        <v>0.7098132282115948</v>
       </c>
       <c r="E208">
-        <v>0.97284549525095</v>
+        <v>0.8151685102974978</v>
       </c>
       <c r="F208" t="s">
         <v>211</v>
@@ -5253,16 +5238,16 @@
         <v>53</v>
       </c>
       <c r="B209">
-        <v>0.9525727942252352</v>
+        <v>0.9288543140028288</v>
       </c>
       <c r="C209">
-        <v>0.9956521739130434</v>
+        <v>0.9785547785547786</v>
       </c>
       <c r="D209">
-        <v>0.8207888053928688</v>
+        <v>0.7399262348032363</v>
       </c>
       <c r="E209">
-        <v>0.8997640806838323</v>
+        <v>0.8412710316859128</v>
       </c>
       <c r="F209" t="s">
         <v>212</v>
@@ -5273,16 +5258,16 @@
         <v>54</v>
       </c>
       <c r="B210">
-        <v>0.9940789152806907</v>
+        <v>0.9278837243330245</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>0.9770339353580197</v>
+        <v>0.721528098320668</v>
       </c>
       <c r="E210">
-        <v>0.9883282780218817</v>
+        <v>0.8376181753287577</v>
       </c>
       <c r="F210" t="s">
         <v>213</v>
@@ -5293,16 +5278,16 @@
         <v>55</v>
       </c>
       <c r="B211">
-        <v>0.9901136419060625</v>
+        <v>0.9288299273277081</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>0.989039039039039</v>
       </c>
       <c r="D211">
-        <v>0.9650461178166095</v>
+        <v>0.7340244583675497</v>
       </c>
       <c r="E211">
-        <v>0.9819864547040107</v>
+        <v>0.841977067609019</v>
       </c>
       <c r="F211" t="s">
         <v>214</v>
@@ -5313,16 +5298,16 @@
         <v>0</v>
       </c>
       <c r="B212">
-        <v>0.9861727552065552</v>
+        <v>0.7895137296980931</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>0.7308507833995089</v>
       </c>
       <c r="D212">
-        <v>0.9486748930361142</v>
+        <v>0.3234500239824783</v>
       </c>
       <c r="E212">
-        <v>0.9735827180571389</v>
+        <v>0.4431564278404038</v>
       </c>
       <c r="F212" t="s">
         <v>215</v>
@@ -5333,16 +5318,16 @@
         <v>1</v>
       </c>
       <c r="B213">
-        <v>0.9832073355118762</v>
+        <v>0.9051699751255914</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>0.9596516772700984</v>
       </c>
       <c r="D213">
-        <v>0.9355183437692919</v>
+        <v>0.6611072261072262</v>
       </c>
       <c r="E213">
-        <v>0.966588378064402</v>
+        <v>0.7790329085598683</v>
       </c>
       <c r="F213" t="s">
         <v>216</v>
@@ -5353,16 +5338,16 @@
         <v>2</v>
       </c>
       <c r="B214">
-        <v>0.9861532458664586</v>
+        <v>0.8073208798712382</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>0.7310285882699675</v>
       </c>
       <c r="D214">
-        <v>0.9463007065174247</v>
+        <v>0.4170884042582156</v>
       </c>
       <c r="E214">
-        <v>0.9720862107219126</v>
+        <v>0.5273430530170935</v>
       </c>
       <c r="F214" t="s">
         <v>217</v>
@@ -5373,16 +5358,16 @@
         <v>3</v>
       </c>
       <c r="B215">
-        <v>0.8962298200263377</v>
+        <v>0.908130517485246</v>
       </c>
       <c r="C215">
-        <v>0.9243805990864814</v>
+        <v>0.9470343899740563</v>
       </c>
       <c r="D215">
-        <v>0.6510008210180624</v>
+        <v>0.6898747252899621</v>
       </c>
       <c r="E215">
-        <v>0.7615894371778704</v>
+        <v>0.7962871595017741</v>
       </c>
       <c r="F215" t="s">
         <v>218</v>
@@ -5393,16 +5378,16 @@
         <v>4</v>
       </c>
       <c r="B216">
-        <v>0.7816417109691265</v>
+        <v>0.801394917816905</v>
       </c>
       <c r="C216">
-        <v>0.6839063545150501</v>
+        <v>0.7343223357599233</v>
       </c>
       <c r="D216">
-        <v>0.3067119986931307</v>
+        <v>0.3663374256910442</v>
       </c>
       <c r="E216">
-        <v>0.422740847213421</v>
+        <v>0.4847275152099209</v>
       </c>
       <c r="F216" t="s">
         <v>219</v>
@@ -5413,16 +5398,16 @@
         <v>5</v>
       </c>
       <c r="B217">
-        <v>0.9525532848851388</v>
+        <v>0.9436960444812954</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>0.9955555555555555</v>
       </c>
       <c r="D217">
-        <v>0.8161940298507462</v>
+        <v>0.7894185848252344</v>
       </c>
       <c r="E217">
-        <v>0.89863632612047</v>
+        <v>0.8797846280789289</v>
       </c>
       <c r="F217" t="s">
         <v>220</v>
@@ -5433,16 +5418,16 @@
         <v>6</v>
       </c>
       <c r="B218">
-        <v>0.9940594059405941</v>
+        <v>0.9011559284007218</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>0.9136067997043605</v>
       </c>
       <c r="D218">
-        <v>0.9773584905660379</v>
+        <v>0.6898684713584201</v>
       </c>
       <c r="E218">
-        <v>0.9879999999999999</v>
+        <v>0.7848749070352785</v>
       </c>
       <c r="F218" t="s">
         <v>221</v>
@@ -5453,16 +5438,16 @@
         <v>7</v>
       </c>
       <c r="B219">
-        <v>0.9930839389357654</v>
+        <v>0.8152124079403015</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>0.7297441718622933</v>
       </c>
       <c r="D219">
-        <v>0.9747565270188222</v>
+        <v>0.4561502685254073</v>
       </c>
       <c r="E219">
-        <v>0.9871380327832068</v>
+        <v>0.5608087522503808</v>
       </c>
       <c r="F219" t="s">
         <v>222</v>
@@ -5473,16 +5458,16 @@
         <v>8</v>
       </c>
       <c r="B220">
-        <v>0.9921035945959128</v>
+        <v>0.9485831341754866</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>0.9951219512195122</v>
       </c>
       <c r="D220">
-        <v>0.9689527221546925</v>
+        <v>0.8073543618043046</v>
       </c>
       <c r="E220">
-        <v>0.9841333055945787</v>
+        <v>0.8893781313462721</v>
       </c>
       <c r="F220" t="s">
         <v>223</v>
@@ -5493,16 +5478,16 @@
         <v>9</v>
       </c>
       <c r="B221">
-        <v>0.9555528459249866</v>
+        <v>0.948602643515583</v>
       </c>
       <c r="C221">
-        <v>0.9958333333333333</v>
+        <v>1</v>
       </c>
       <c r="D221">
-        <v>0.8340762100694568</v>
+        <v>0.8042361285354682</v>
       </c>
       <c r="E221">
-        <v>0.9065869473471047</v>
+        <v>0.8906076360434174</v>
       </c>
       <c r="F221" t="s">
         <v>224</v>
@@ -5513,16 +5498,16 @@
         <v>10</v>
       </c>
       <c r="B222">
-        <v>0.9881383212212846</v>
+        <v>0.8952348436814125</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>0.912827283837073</v>
       </c>
       <c r="D222">
-        <v>0.9546026414745625</v>
+        <v>0.6643563639922911</v>
       </c>
       <c r="E222">
-        <v>0.976646132113013</v>
+        <v>0.7652078910578366</v>
       </c>
       <c r="F222" t="s">
         <v>225</v>
@@ -5533,16 +5518,16 @@
         <v>11</v>
       </c>
       <c r="B223">
-        <v>0.9871482222113837</v>
+        <v>0.7727113105399208</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>0.7119444444444445</v>
       </c>
       <c r="D223">
-        <v>0.94741575494965</v>
+        <v>0.224576612254097</v>
       </c>
       <c r="E223">
-        <v>0.9727170903213166</v>
+        <v>0.3356069643805702</v>
       </c>
       <c r="F223" t="s">
         <v>226</v>
@@ -5553,16 +5538,16 @@
         <v>12</v>
       </c>
       <c r="B224">
-        <v>0.9832024581768521</v>
+        <v>0.9525776715602594</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>0.9351725265556728</v>
+        <v>0.8168538804887306</v>
       </c>
       <c r="E224">
-        <v>0.9663926376965761</v>
+        <v>0.898750487307629</v>
       </c>
       <c r="F224" t="s">
         <v>227</v>
@@ -5573,16 +5558,16 @@
         <v>13</v>
       </c>
       <c r="B225">
-        <v>0.9367702287470125</v>
+        <v>0.9535336292249916</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>0.7558247756738481</v>
+        <v>0.8178106185002736</v>
       </c>
       <c r="E225">
-        <v>0.8599743556564426</v>
+        <v>0.8984237156650166</v>
       </c>
       <c r="F225" t="s">
         <v>228</v>
@@ -5593,16 +5578,16 @@
         <v>14</v>
       </c>
       <c r="B226">
-        <v>0.9940642832756182</v>
+        <v>0.9515729405452861</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>0.9769452418608815</v>
+        <v>0.8153755656108597</v>
       </c>
       <c r="E226">
-        <v>0.9882913389901379</v>
+        <v>0.8976184329942072</v>
       </c>
       <c r="F226" t="s">
         <v>229</v>
@@ -5613,16 +5598,16 @@
         <v>15</v>
       </c>
       <c r="B227">
-        <v>0.988148075891333</v>
+        <v>0.8992391357362337</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>0.9330088988912518</v>
       </c>
       <c r="D227">
-        <v>0.9562535930297804</v>
+        <v>0.6666807029643114</v>
       </c>
       <c r="E227">
-        <v>0.9774690905034579</v>
+        <v>0.7747428937905128</v>
       </c>
       <c r="F227" t="s">
         <v>230</v>
@@ -5633,16 +5618,16 @@
         <v>16</v>
       </c>
       <c r="B228">
-        <v>0.9891284202311856</v>
+        <v>0.8063405355313857</v>
       </c>
       <c r="C228">
-        <v>1</v>
+        <v>0.746604190573335</v>
       </c>
       <c r="D228">
-        <v>0.958017708997253</v>
+        <v>0.3900844438580288</v>
       </c>
       <c r="E228">
-        <v>0.9785474221024092</v>
+        <v>0.5087465005692854</v>
       </c>
       <c r="F228" t="s">
         <v>231</v>
@@ -5653,16 +5638,16 @@
         <v>17</v>
       </c>
       <c r="B229">
-        <v>0.9891284202311856</v>
+        <v>0.9209871726088865</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>0.9899749373433584</v>
       </c>
       <c r="D229">
-        <v>0.958651130255703</v>
+        <v>0.7048909984893812</v>
       </c>
       <c r="E229">
-        <v>0.9788497241835344</v>
+        <v>0.8213184869247538</v>
       </c>
       <c r="F229" t="s">
         <v>232</v>
@@ -5673,16 +5658,16 @@
         <v>18</v>
       </c>
       <c r="B230">
-        <v>0.9496415158757255</v>
+        <v>0.9308150026825341</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>0.9840682788051209</v>
       </c>
       <c r="D230">
-        <v>0.8114598501719186</v>
+        <v>0.7512053957299685</v>
       </c>
       <c r="E230">
-        <v>0.8947413189249191</v>
+        <v>0.8501320901320902</v>
       </c>
       <c r="F230" t="s">
         <v>233</v>
@@ -5693,16 +5678,16 @@
         <v>19</v>
       </c>
       <c r="B231">
-        <v>0.9950592596205434</v>
+        <v>0.9298590450178024</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>0.9843137254901961</v>
       </c>
       <c r="D231">
-        <v>0.9808562555456966</v>
+        <v>0.7392930497581661</v>
       </c>
       <c r="E231">
-        <v>0.9903349367266893</v>
+        <v>0.842918847202854</v>
       </c>
       <c r="F231" t="s">
         <v>234</v>
@@ -5713,16 +5698,16 @@
         <v>20</v>
       </c>
       <c r="B232">
-        <v>0.9911086182509876</v>
+        <v>0.930839389357655</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>0.9901098901098901</v>
       </c>
       <c r="D232">
-        <v>0.9657915060880022</v>
+        <v>0.7419032057267352</v>
       </c>
       <c r="E232">
-        <v>0.9824004806734215</v>
+        <v>0.8480110976020973</v>
       </c>
       <c r="F232" t="s">
         <v>235</v>
@@ -5733,16 +5718,16 @@
         <v>21</v>
       </c>
       <c r="B233">
-        <v>0.9841974345217773</v>
+        <v>0.8932448909915622</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>0.9380077406340398</v>
       </c>
       <c r="D233">
-        <v>0.9378029947611228</v>
+        <v>0.6342504835589942</v>
       </c>
       <c r="E233">
-        <v>0.9677205350095122</v>
+        <v>0.7544440004179664</v>
       </c>
       <c r="F233" t="s">
         <v>236</v>
@@ -5753,16 +5738,16 @@
         <v>22</v>
       </c>
       <c r="B234">
-        <v>0.9832073355118762</v>
+        <v>0.8023069794664195</v>
       </c>
       <c r="C234">
-        <v>1</v>
+        <v>0.7076756756756757</v>
       </c>
       <c r="D234">
-        <v>0.9362606069681542</v>
+        <v>0.4236573757626389</v>
       </c>
       <c r="E234">
-        <v>0.9667624956520854</v>
+        <v>0.5223575446319393</v>
       </c>
       <c r="F234" t="s">
         <v>237</v>
@@ -5773,16 +5758,16 @@
         <v>23</v>
       </c>
       <c r="B235">
-        <v>0.9851826561966541</v>
+        <v>0.9288494366678048</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>0.983103911364781</v>
       </c>
       <c r="D235">
-        <v>0.9442263649892618</v>
+        <v>0.732382883248182</v>
       </c>
       <c r="E235">
-        <v>0.9712371296205882</v>
+        <v>0.8382936381656878</v>
       </c>
       <c r="F235" t="s">
         <v>238</v>
@@ -5793,16 +5778,16 @@
         <v>24</v>
       </c>
       <c r="B236">
-        <v>0.9278593376579037</v>
+        <v>0.9347851533921865</v>
       </c>
       <c r="C236">
-        <v>0.9906976744186047</v>
+        <v>0.9885714285714287</v>
       </c>
       <c r="D236">
-        <v>0.7291407587849883</v>
+        <v>0.7599107711964773</v>
       </c>
       <c r="E236">
-        <v>0.8391360343028877</v>
+        <v>0.8583316892276743</v>
       </c>
       <c r="F236" t="s">
         <v>239</v>
@@ -5813,16 +5798,16 @@
         <v>25</v>
       </c>
       <c r="B237">
-        <v>0.9891284202311856</v>
+        <v>0.9288250499926839</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>0.984060984060984</v>
       </c>
       <c r="D237">
-        <v>0.9573855429669382</v>
+        <v>0.738456228956229</v>
       </c>
       <c r="E237">
-        <v>0.9781539618250079</v>
+        <v>0.8421683447635262</v>
       </c>
       <c r="F237" t="s">
         <v>240</v>
@@ -5833,16 +5818,16 @@
         <v>26</v>
       </c>
       <c r="B238">
-        <v>0.9871530995464077</v>
+        <v>0.9317855923523387</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>0.9884522854851644</v>
       </c>
       <c r="D238">
-        <v>0.9505709807433945</v>
+        <v>0.7456709956709957</v>
       </c>
       <c r="E238">
-        <v>0.974457770846322</v>
+        <v>0.8485516575785359</v>
       </c>
       <c r="F238" t="s">
         <v>241</v>
@@ -5853,16 +5838,16 @@
         <v>27</v>
       </c>
       <c r="B239">
-        <v>0.9891332975662099</v>
+        <v>0.9070965224601277</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>0.9630769230769231</v>
       </c>
       <c r="D239">
-        <v>0.9582309234882764</v>
+        <v>0.6707482993197279</v>
       </c>
       <c r="E239">
-        <v>0.9786249149484296</v>
+        <v>0.7887179487179486</v>
       </c>
       <c r="F239" t="s">
         <v>242</v>
@@ -5873,16 +5858,16 @@
         <v>0</v>
       </c>
       <c r="B240">
-        <v>0.9881431985563088</v>
+        <v>0.8962444520314101</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>0.9298905657678278</v>
       </c>
       <c r="D240">
-        <v>0.954777621393385</v>
+        <v>0.6524285459514957</v>
       </c>
       <c r="E240">
-        <v>0.9768132426335845</v>
+        <v>0.7641553083578401</v>
       </c>
       <c r="F240" t="s">
         <v>243</v>
@@ -5893,16 +5878,16 @@
         <v>1</v>
       </c>
       <c r="B241">
-        <v>0.9871579768814321</v>
+        <v>0.7963517534019411</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>0.683991482898481</v>
       </c>
       <c r="D241">
-        <v>0.9501733652909221</v>
+        <v>0.3995223127935894</v>
       </c>
       <c r="E241">
-        <v>0.9743375019650529</v>
+        <v>0.4989585852743749</v>
       </c>
       <c r="F241" t="s">
         <v>244</v>
@@ -5913,16 +5898,16 @@
         <v>2</v>
       </c>
       <c r="B242">
-        <v>0.9822172365019753</v>
+        <v>0.9279324976832658</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>0.9807200929152149</v>
       </c>
       <c r="D242">
-        <v>0.9289791185225166</v>
+        <v>0.743196821020193</v>
       </c>
       <c r="E242">
-        <v>0.962008634620716</v>
+        <v>0.8416425420457678</v>
       </c>
       <c r="F242" t="s">
         <v>245</v>
@@ -5933,16 +5918,16 @@
         <v>3</v>
       </c>
       <c r="B243">
-        <v>0.9328098327074086</v>
+        <v>0.9337999317173097</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>0.7425472609607146</v>
+        <v>0.742888725128961</v>
       </c>
       <c r="E243">
-        <v>0.8497588243508547</v>
+        <v>0.851075157773953</v>
       </c>
       <c r="F243" t="s">
         <v>246</v>
@@ -5953,16 +5938,16 @@
         <v>4</v>
       </c>
       <c r="B244">
-        <v>0.9911134955860117</v>
+        <v>0.9288884553479978</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>0.9952380952380953</v>
       </c>
       <c r="D244">
-        <v>0.964900284900285</v>
+        <v>0.7350027495432211</v>
       </c>
       <c r="E244">
-        <v>0.9820376468035181</v>
+        <v>0.8449653707636902</v>
       </c>
       <c r="F244" t="s">
         <v>247</v>
@@ -5973,16 +5958,16 @@
         <v>5</v>
       </c>
       <c r="B245">
-        <v>0.9871579768814321</v>
+        <v>0.9338048090523339</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>0.9516063936063934</v>
+        <v>0.7466202786192462</v>
       </c>
       <c r="E245">
-        <v>0.9748684059415549</v>
+        <v>0.8542922675617483</v>
       </c>
       <c r="F245" t="s">
         <v>248</v>
@@ -5993,16 +5978,16 @@
         <v>6</v>
       </c>
       <c r="B246">
-        <v>0.9881431985563088</v>
+        <v>0.915983026874116</v>
       </c>
       <c r="C246">
-        <v>1</v>
+        <v>0.9774725274725276</v>
       </c>
       <c r="D246">
-        <v>0.9560654371642938</v>
+        <v>0.6889262510539107</v>
       </c>
       <c r="E246">
-        <v>0.9774123265467465</v>
+        <v>0.8069819845312205</v>
       </c>
       <c r="F246" t="s">
         <v>249</v>
@@ -6013,16 +5998,16 @@
         <v>7</v>
       </c>
       <c r="B247">
-        <v>0.985172901526606</v>
+        <v>0.9110813051748524</v>
       </c>
       <c r="C247">
-        <v>1</v>
+        <v>0.9722908293752284</v>
       </c>
       <c r="D247">
-        <v>0.9442903657189372</v>
+        <v>0.679216547925108</v>
       </c>
       <c r="E247">
-        <v>0.9709250819206081</v>
+        <v>0.7982296159125426</v>
       </c>
       <c r="F247" t="s">
         <v>250</v>
@@ -6033,16 +6018,16 @@
         <v>0</v>
       </c>
       <c r="B248">
-        <v>0.9871530995464077</v>
+        <v>0.9229137199434229</v>
       </c>
       <c r="C248">
-        <v>1</v>
+        <v>0.9833333333333332</v>
       </c>
       <c r="D248">
-        <v>0.952152121882801</v>
+        <v>0.7143727005847791</v>
       </c>
       <c r="E248">
-        <v>0.9752835449017642</v>
+        <v>0.8272159615140531</v>
       </c>
       <c r="F248" t="s">
         <v>251</v>
